--- a/BackTest/2019-10-25 BackTest TRX.xlsx
+++ b/BackTest/2019-10-25 BackTest TRX.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.1000000000000014</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>100</v>
+      </c>
       <c r="L12" t="n">
         <v>16.98</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.1000000000000014</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>100</v>
+      </c>
       <c r="L13" t="n">
         <v>16.99</v>
       </c>
@@ -1187,7 +1191,9 @@
       <c r="J18" t="n">
         <v>0.2000000000000028</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>100</v>
+      </c>
       <c r="L18" t="n">
         <v>17.01</v>
       </c>
@@ -1232,7 +1238,9 @@
       <c r="J19" t="n">
         <v>0.2000000000000028</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>100</v>
+      </c>
       <c r="L19" t="n">
         <v>17.02</v>
       </c>
@@ -1277,7 +1285,9 @@
       <c r="J20" t="n">
         <v>0.2000000000000028</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>100</v>
+      </c>
       <c r="L20" t="n">
         <v>17.02999999999999</v>
       </c>
@@ -1322,7 +1332,9 @@
       <c r="J21" t="n">
         <v>0.2000000000000028</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>100</v>
+      </c>
       <c r="L21" t="n">
         <v>17.04</v>
       </c>
@@ -1369,7 +1381,9 @@
       <c r="J22" t="n">
         <v>0.2000000000000028</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>100</v>
+      </c>
       <c r="L22" t="n">
         <v>17.04999999999999</v>
       </c>
@@ -1613,7 +1627,7 @@
         <v>0.3999999999999986</v>
       </c>
       <c r="K27" t="n">
-        <v>33.33333333333412</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>17.10999999999999</v>
@@ -1662,7 +1676,7 @@
         <v>0.4999999999999964</v>
       </c>
       <c r="K28" t="n">
-        <v>50.00000000000044</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L28" t="n">
         <v>17.11999999999999</v>
@@ -1711,7 +1725,7 @@
         <v>0.4999999999999964</v>
       </c>
       <c r="K29" t="n">
-        <v>50.00000000000044</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L29" t="n">
         <v>17.12999999999999</v>
@@ -1760,7 +1774,7 @@
         <v>0.4999999999999964</v>
       </c>
       <c r="K30" t="n">
-        <v>50.00000000000044</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L30" t="n">
         <v>17.13999999999999</v>
@@ -1809,7 +1823,7 @@
         <v>0.4999999999999964</v>
       </c>
       <c r="K31" t="n">
-        <v>50.00000000000044</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L31" t="n">
         <v>17.14999999999999</v>
@@ -1860,7 +1874,7 @@
         <v>0.4999999999999964</v>
       </c>
       <c r="K32" t="n">
-        <v>50.00000000000044</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L32" t="n">
         <v>17.15999999999999</v>
@@ -1911,7 +1925,7 @@
         <v>0.4999999999999964</v>
       </c>
       <c r="K33" t="n">
-        <v>50.00000000000044</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L33" t="n">
         <v>17.16999999999999</v>
@@ -1962,7 +1976,7 @@
         <v>0.4999999999999964</v>
       </c>
       <c r="K34" t="n">
-        <v>50.00000000000044</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>17.17999999999999</v>
@@ -2013,7 +2027,7 @@
         <v>0.5999999999999979</v>
       </c>
       <c r="K35" t="n">
-        <v>60.00000000000056</v>
+        <v>100</v>
       </c>
       <c r="L35" t="n">
         <v>17.18999999999999</v>
@@ -2064,7 +2078,7 @@
         <v>0.6999999999999993</v>
       </c>
       <c r="K36" t="n">
-        <v>33.33333333333333</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L36" t="n">
         <v>17.19999999999999</v>
@@ -2115,7 +2129,7 @@
         <v>0.8000000000000007</v>
       </c>
       <c r="K37" t="n">
-        <v>42.857142857143</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L37" t="n">
         <v>17.21999999999999</v>
@@ -2472,7 +2486,7 @@
         <v>0.8000000000000007</v>
       </c>
       <c r="K44" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>17.29000000000001</v>
@@ -2574,7 +2588,7 @@
         <v>1.000000000000004</v>
       </c>
       <c r="K46" t="n">
-        <v>33.33333333333294</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>17.29000000000001</v>
@@ -2625,7 +2639,7 @@
         <v>1.000000000000004</v>
       </c>
       <c r="K47" t="n">
-        <v>33.33333333333294</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>17.29000000000001</v>
@@ -2676,7 +2690,7 @@
         <v>1.000000000000004</v>
       </c>
       <c r="K48" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>17.29000000000001</v>
@@ -2727,7 +2741,7 @@
         <v>1.000000000000004</v>
       </c>
       <c r="K49" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>17.29000000000001</v>
@@ -2778,7 +2792,7 @@
         <v>1.000000000000004</v>
       </c>
       <c r="K50" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>17.29000000000001</v>
@@ -2829,7 +2843,7 @@
         <v>1.000000000000004</v>
       </c>
       <c r="K51" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>17.29000000000001</v>
@@ -2880,7 +2894,7 @@
         <v>1.100000000000001</v>
       </c>
       <c r="K52" t="n">
-        <v>33.33333333333294</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L52" t="n">
         <v>17.3</v>
@@ -2931,7 +2945,7 @@
         <v>1.300000000000001</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L53" t="n">
         <v>17.29</v>
@@ -2982,7 +2996,7 @@
         <v>1.400000000000002</v>
       </c>
       <c r="K54" t="n">
-        <v>11.1111111111112</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L54" t="n">
         <v>17.29</v>
@@ -3084,7 +3098,7 @@
         <v>1.500000000000004</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L56" t="n">
         <v>17.29</v>
@@ -3339,7 +3353,7 @@
         <v>1.700000000000003</v>
       </c>
       <c r="K61" t="n">
-        <v>11.11111111111085</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>17.3</v>
@@ -3390,7 +3404,7 @@
         <v>1.800000000000001</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L62" t="n">
         <v>17.29</v>
@@ -3543,7 +3557,7 @@
         <v>1.800000000000001</v>
       </c>
       <c r="K65" t="n">
-        <v>11.11111111111129</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L65" t="n">
         <v>17.3</v>
@@ -3798,7 +3812,7 @@
         <v>1.900000000000002</v>
       </c>
       <c r="K70" t="n">
-        <v>-11.11111111111129</v>
+        <v>-100</v>
       </c>
       <c r="L70" t="n">
         <v>17.3</v>
@@ -3849,7 +3863,7 @@
         <v>2.100000000000001</v>
       </c>
       <c r="K71" t="n">
-        <v>9.090909090908914</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L71" t="n">
         <v>17.3</v>
@@ -3900,7 +3914,7 @@
         <v>2.199999999999999</v>
       </c>
       <c r="K72" t="n">
-        <v>-9.090909090908914</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>17.3</v>
@@ -3951,7 +3965,7 @@
         <v>2.299999999999997</v>
       </c>
       <c r="K73" t="n">
-        <v>20</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L73" t="n">
         <v>17.31000000000001</v>
@@ -4002,7 +4016,7 @@
         <v>2.299999999999997</v>
       </c>
       <c r="K74" t="n">
-        <v>11.11111111111093</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L74" t="n">
         <v>17.32</v>
@@ -4053,7 +4067,7 @@
         <v>2.299999999999997</v>
       </c>
       <c r="K75" t="n">
-        <v>11.11111111111093</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L75" t="n">
         <v>17.33000000000001</v>
@@ -4104,7 +4118,7 @@
         <v>2.299999999999997</v>
       </c>
       <c r="K76" t="n">
-        <v>25.00000000000011</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L76" t="n">
         <v>17.34</v>
@@ -4155,7 +4169,7 @@
         <v>2.299999999999997</v>
       </c>
       <c r="K77" t="n">
-        <v>14.28571428571414</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L77" t="n">
         <v>17.35</v>
@@ -4206,7 +4220,7 @@
         <v>2.299999999999997</v>
       </c>
       <c r="K78" t="n">
-        <v>14.28571428571414</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L78" t="n">
         <v>17.36</v>
@@ -4257,7 +4271,7 @@
         <v>2.399999999999995</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L79" t="n">
         <v>17.36</v>
@@ -4308,7 +4322,7 @@
         <v>2.499999999999993</v>
       </c>
       <c r="K80" t="n">
-        <v>11.11111111111102</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
         <v>17.38</v>
@@ -4359,7 +4373,7 @@
         <v>2.499999999999993</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L81" t="n">
         <v>17.38</v>
@@ -4410,7 +4424,7 @@
         <v>2.599999999999991</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L82" t="n">
         <v>17.38</v>
@@ -4461,7 +4475,7 @@
         <v>2.599999999999991</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L83" t="n">
         <v>17.37</v>
@@ -4512,7 +4526,7 @@
         <v>2.599999999999991</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L84" t="n">
         <v>17.36000000000001</v>
@@ -4563,7 +4577,7 @@
         <v>2.699999999999992</v>
       </c>
       <c r="K85" t="n">
-        <v>-11.11111111111137</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L85" t="n">
         <v>17.34</v>
@@ -4614,7 +4628,7 @@
         <v>2.799999999999994</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L86" t="n">
         <v>17.33000000000001</v>
@@ -4665,7 +4679,7 @@
         <v>2.799999999999994</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L87" t="n">
         <v>17.32</v>
@@ -4716,7 +4730,7 @@
         <v>2.899999999999995</v>
       </c>
       <c r="K88" t="n">
-        <v>-9.090909090909268</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L88" t="n">
         <v>17.3</v>
@@ -4767,7 +4781,7 @@
         <v>2.999999999999996</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L89" t="n">
         <v>17.3</v>
@@ -4818,7 +4832,7 @@
         <v>3.099999999999998</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L90" t="n">
         <v>17.28</v>
@@ -4869,7 +4883,7 @@
         <v>3.199999999999999</v>
       </c>
       <c r="K91" t="n">
-        <v>-9.090909090908914</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>17.27</v>
@@ -4971,7 +4985,7 @@
         <v>3.199999999999999</v>
       </c>
       <c r="K93" t="n">
-        <v>-11.11111111111085</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>17.27</v>
@@ -5022,7 +5036,7 @@
         <v>3.199999999999999</v>
       </c>
       <c r="K94" t="n">
-        <v>-11.11111111111085</v>
+        <v>20</v>
       </c>
       <c r="L94" t="n">
         <v>17.27</v>
@@ -5073,7 +5087,7 @@
         <v>3.199999999999999</v>
       </c>
       <c r="K95" t="n">
-        <v>-11.11111111111085</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>17.28</v>
@@ -5124,7 +5138,7 @@
         <v>3.199999999999999</v>
       </c>
       <c r="K96" t="n">
-        <v>-11.11111111111085</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>17.28</v>
@@ -5175,7 +5189,7 @@
         <v>3.199999999999999</v>
       </c>
       <c r="K97" t="n">
-        <v>-11.11111111111085</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L97" t="n">
         <v>17.28</v>
@@ -5226,7 +5240,7 @@
         <v>3.199999999999999</v>
       </c>
       <c r="K98" t="n">
-        <v>-11.11111111111085</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>17.29000000000001</v>
@@ -5277,7 +5291,7 @@
         <v>3.199999999999999</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L99" t="n">
         <v>17.29000000000001</v>
@@ -5327,9 +5341,7 @@
       <c r="J100" t="n">
         <v>3.199999999999999</v>
       </c>
-      <c r="K100" t="n">
-        <v>-14.28571428571385</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>17.30000000000001</v>
       </c>
@@ -5378,9 +5390,7 @@
       <c r="J101" t="n">
         <v>3.199999999999999</v>
       </c>
-      <c r="K101" t="n">
-        <v>-14.28571428571385</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>17.30000000000001</v>
       </c>
@@ -5429,9 +5439,7 @@
       <c r="J102" t="n">
         <v>3.199999999999999</v>
       </c>
-      <c r="K102" t="n">
-        <v>0</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>17.30000000000001</v>
       </c>
@@ -5480,9 +5488,7 @@
       <c r="J103" t="n">
         <v>3.199999999999999</v>
       </c>
-      <c r="K103" t="n">
-        <v>0</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>17.30000000000001</v>
       </c>
@@ -5531,9 +5537,7 @@
       <c r="J104" t="n">
         <v>3.199999999999999</v>
       </c>
-      <c r="K104" t="n">
-        <v>0</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>17.30000000000001</v>
       </c>
@@ -5582,9 +5586,7 @@
       <c r="J105" t="n">
         <v>3.199999999999999</v>
       </c>
-      <c r="K105" t="n">
-        <v>20</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>17.30000000000001</v>
       </c>
@@ -5633,9 +5635,7 @@
       <c r="J106" t="n">
         <v>3.199999999999999</v>
       </c>
-      <c r="K106" t="n">
-        <v>0</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>17.30000000000001</v>
       </c>
@@ -5684,9 +5684,7 @@
       <c r="J107" t="n">
         <v>3.199999999999999</v>
       </c>
-      <c r="K107" t="n">
-        <v>0</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>17.30000000000001</v>
       </c>
@@ -5735,9 +5733,7 @@
       <c r="J108" t="n">
         <v>3.199999999999999</v>
       </c>
-      <c r="K108" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>17.30000000000001</v>
       </c>
@@ -5787,7 +5783,7 @@
         <v>3.299999999999997</v>
       </c>
       <c r="K109" t="n">
-        <v>33.33333333333254</v>
+        <v>100</v>
       </c>
       <c r="L109" t="n">
         <v>17.31000000000001</v>
@@ -5838,7 +5834,7 @@
         <v>3.399999999999995</v>
       </c>
       <c r="K110" t="n">
-        <v>33.33333333333412</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
         <v>17.31000000000001</v>
@@ -6246,7 +6242,7 @@
         <v>3.699999999999996</v>
       </c>
       <c r="K118" t="n">
-        <v>19.99999999999972</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
         <v>17.38</v>
@@ -6297,7 +6293,7 @@
         <v>3.699999999999996</v>
       </c>
       <c r="K119" t="n">
-        <v>19.99999999999972</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L119" t="n">
         <v>17.38</v>
@@ -6348,7 +6344,7 @@
         <v>3.699999999999996</v>
       </c>
       <c r="K120" t="n">
-        <v>19.99999999999972</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L120" t="n">
         <v>17.39</v>
@@ -6450,7 +6446,7 @@
         <v>3.899999999999991</v>
       </c>
       <c r="K122" t="n">
-        <v>14.28571428571414</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L122" t="n">
         <v>17.4</v>
@@ -6501,7 +6497,7 @@
         <v>3.899999999999991</v>
       </c>
       <c r="K123" t="n">
-        <v>14.28571428571414</v>
+        <v>0</v>
       </c>
       <c r="L123" t="n">
         <v>17.41</v>
@@ -6552,7 +6548,7 @@
         <v>3.999999999999989</v>
       </c>
       <c r="K124" t="n">
-        <v>0</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L124" t="n">
         <v>17.4</v>
@@ -6603,7 +6599,7 @@
         <v>3.999999999999989</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L125" t="n">
         <v>17.39</v>
@@ -6654,7 +6650,7 @@
         <v>4.099999999999987</v>
       </c>
       <c r="K126" t="n">
-        <v>11.11111111111102</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L126" t="n">
         <v>17.38</v>
@@ -6705,7 +6701,7 @@
         <v>4.099999999999987</v>
       </c>
       <c r="K127" t="n">
-        <v>11.11111111111102</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
         <v>17.37</v>
@@ -6756,7 +6752,7 @@
         <v>4.099999999999987</v>
       </c>
       <c r="K128" t="n">
-        <v>11.11111111111102</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
         <v>17.37</v>
@@ -6858,7 +6854,7 @@
         <v>4.099999999999987</v>
       </c>
       <c r="K130" t="n">
-        <v>14.28571428571414</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L130" t="n">
         <v>17.37</v>
@@ -6909,7 +6905,7 @@
         <v>4.099999999999987</v>
       </c>
       <c r="K131" t="n">
-        <v>14.28571428571414</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
         <v>17.38</v>
@@ -6960,7 +6956,7 @@
         <v>4.099999999999987</v>
       </c>
       <c r="K132" t="n">
-        <v>14.28571428571414</v>
+        <v>0</v>
       </c>
       <c r="L132" t="n">
         <v>17.38</v>
@@ -7011,7 +7007,7 @@
         <v>4.099999999999987</v>
       </c>
       <c r="K133" t="n">
-        <v>14.28571428571414</v>
+        <v>100</v>
       </c>
       <c r="L133" t="n">
         <v>17.38</v>
@@ -7062,7 +7058,7 @@
         <v>4.199999999999989</v>
       </c>
       <c r="K134" t="n">
-        <v>14.28571428571458</v>
+        <v>100</v>
       </c>
       <c r="L134" t="n">
         <v>17.4</v>
@@ -7113,7 +7109,7 @@
         <v>4.199999999999989</v>
       </c>
       <c r="K135" t="n">
-        <v>14.28571428571458</v>
+        <v>100</v>
       </c>
       <c r="L135" t="n">
         <v>17.42</v>
@@ -7164,7 +7160,7 @@
         <v>4.29999999999999</v>
       </c>
       <c r="K136" t="n">
-        <v>-14.28571428571458</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
         <v>17.42</v>
@@ -7215,7 +7211,7 @@
         <v>4.29999999999999</v>
       </c>
       <c r="K137" t="n">
-        <v>-14.28571428571458</v>
+        <v>0</v>
       </c>
       <c r="L137" t="n">
         <v>17.42</v>
@@ -7368,7 +7364,7 @@
         <v>4.399999999999991</v>
       </c>
       <c r="K140" t="n">
-        <v>14.28571428571458</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L140" t="n">
         <v>17.43</v>
@@ -7419,7 +7415,7 @@
         <v>4.499999999999993</v>
       </c>
       <c r="K141" t="n">
-        <v>14.285714285714</v>
+        <v>0</v>
       </c>
       <c r="L141" t="n">
         <v>17.43</v>
@@ -7470,7 +7466,7 @@
         <v>4.599999999999994</v>
       </c>
       <c r="K142" t="n">
-        <v>14.28571428571443</v>
+        <v>20</v>
       </c>
       <c r="L142" t="n">
         <v>17.44</v>
@@ -7521,7 +7517,7 @@
         <v>4.599999999999994</v>
       </c>
       <c r="K143" t="n">
-        <v>14.28571428571443</v>
+        <v>0</v>
       </c>
       <c r="L143" t="n">
         <v>17.45</v>
@@ -7572,7 +7568,7 @@
         <v>4.799999999999994</v>
       </c>
       <c r="K144" t="n">
-        <v>0</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L144" t="n">
         <v>17.43</v>
@@ -7623,7 +7619,7 @@
         <v>4.799999999999994</v>
       </c>
       <c r="K145" t="n">
-        <v>0</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L145" t="n">
         <v>17.41</v>
@@ -7674,7 +7670,7 @@
         <v>4.999999999999993</v>
       </c>
       <c r="K146" t="n">
-        <v>11.1111111111112</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L146" t="n">
         <v>17.42</v>
@@ -7725,7 +7721,7 @@
         <v>4.999999999999993</v>
       </c>
       <c r="K147" t="n">
-        <v>11.1111111111112</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L147" t="n">
         <v>17.43</v>
@@ -7827,7 +7823,7 @@
         <v>5.199999999999996</v>
       </c>
       <c r="K149" t="n">
-        <v>9.09090909090915</v>
+        <v>0</v>
       </c>
       <c r="L149" t="n">
         <v>17.44</v>
@@ -7878,7 +7874,7 @@
         <v>5.199999999999996</v>
       </c>
       <c r="K150" t="n">
-        <v>9.09090909090915</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L150" t="n">
         <v>17.44</v>
@@ -7929,7 +7925,7 @@
         <v>5.299999999999997</v>
       </c>
       <c r="K151" t="n">
-        <v>16.66666666666677</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L151" t="n">
         <v>17.46</v>
@@ -7980,7 +7976,7 @@
         <v>5.399999999999999</v>
       </c>
       <c r="K152" t="n">
-        <v>7.692307692307734</v>
+        <v>0</v>
       </c>
       <c r="L152" t="n">
         <v>17.46</v>
@@ -8031,7 +8027,7 @@
         <v>5.399999999999999</v>
       </c>
       <c r="K153" t="n">
-        <v>7.692307692307734</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L153" t="n">
         <v>17.46</v>
@@ -8082,7 +8078,7 @@
         <v>5.399999999999999</v>
       </c>
       <c r="K154" t="n">
-        <v>0</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L154" t="n">
         <v>17.48</v>
@@ -8184,7 +8180,7 @@
         <v>5.399999999999999</v>
       </c>
       <c r="K156" t="n">
-        <v>9.09090909090915</v>
+        <v>0</v>
       </c>
       <c r="L156" t="n">
         <v>17.5</v>
@@ -8235,7 +8231,7 @@
         <v>5.5</v>
       </c>
       <c r="K157" t="n">
-        <v>16.66666666666677</v>
+        <v>50</v>
       </c>
       <c r="L157" t="n">
         <v>17.51</v>
@@ -8286,7 +8282,7 @@
         <v>5.600000000000001</v>
       </c>
       <c r="K158" t="n">
-        <v>7.692307692307734</v>
+        <v>0</v>
       </c>
       <c r="L158" t="n">
         <v>17.52</v>
@@ -8337,7 +8333,7 @@
         <v>5.700000000000003</v>
       </c>
       <c r="K159" t="n">
-        <v>14.28571428571436</v>
+        <v>20</v>
       </c>
       <c r="L159" t="n">
         <v>17.52999999999999</v>
@@ -8388,7 +8384,7 @@
         <v>5.700000000000003</v>
       </c>
       <c r="K160" t="n">
-        <v>7.692307692307734</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
         <v>17.54</v>
@@ -8439,7 +8435,7 @@
         <v>5.700000000000003</v>
       </c>
       <c r="K161" t="n">
-        <v>16.66666666666677</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L161" t="n">
         <v>17.54</v>
@@ -8490,7 +8486,7 @@
         <v>5.700000000000003</v>
       </c>
       <c r="K162" t="n">
-        <v>9.09090909090915</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L162" t="n">
         <v>17.54999999999999</v>
@@ -8592,7 +8588,7 @@
         <v>5.900000000000006</v>
       </c>
       <c r="K164" t="n">
-        <v>27.27272727272704</v>
+        <v>20</v>
       </c>
       <c r="L164" t="n">
         <v>17.56</v>
@@ -8643,7 +8639,7 @@
         <v>6.000000000000007</v>
       </c>
       <c r="K165" t="n">
-        <v>16.66666666666642</v>
+        <v>0</v>
       </c>
       <c r="L165" t="n">
         <v>17.56</v>
@@ -8694,7 +8690,7 @@
         <v>6.100000000000009</v>
       </c>
       <c r="K166" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L166" t="n">
         <v>17.56999999999999</v>
@@ -8745,7 +8741,7 @@
         <v>6.200000000000006</v>
       </c>
       <c r="K167" t="n">
-        <v>16.66666666666642</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L167" t="n">
         <v>17.57999999999999</v>
@@ -8796,7 +8792,7 @@
         <v>6.200000000000006</v>
       </c>
       <c r="K168" t="n">
-        <v>27.27272727272704</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L168" t="n">
         <v>17.59999999999999</v>
@@ -8847,7 +8843,7 @@
         <v>6.200000000000006</v>
       </c>
       <c r="K169" t="n">
-        <v>19.99999999999972</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L169" t="n">
         <v>17.60999999999999</v>
@@ -8898,7 +8894,7 @@
         <v>6.200000000000006</v>
       </c>
       <c r="K170" t="n">
-        <v>19.99999999999972</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L170" t="n">
         <v>17.61999999999999</v>
@@ -9000,7 +8996,7 @@
         <v>6.400000000000002</v>
       </c>
       <c r="K172" t="n">
-        <v>19.99999999999986</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L172" t="n">
         <v>17.62999999999999</v>
@@ -9051,7 +9047,7 @@
         <v>6.400000000000002</v>
       </c>
       <c r="K173" t="n">
-        <v>19.99999999999986</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L173" t="n">
         <v>17.64999999999999</v>
@@ -9102,7 +9098,7 @@
         <v>6.400000000000002</v>
       </c>
       <c r="K174" t="n">
-        <v>19.99999999999986</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L174" t="n">
         <v>17.65999999999999</v>
@@ -9153,7 +9149,7 @@
         <v>6.500000000000004</v>
       </c>
       <c r="K175" t="n">
-        <v>27.27272727272722</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L175" t="n">
         <v>17.68999999999999</v>
@@ -9204,7 +9200,7 @@
         <v>6.500000000000004</v>
       </c>
       <c r="K176" t="n">
-        <v>27.27272727272722</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L176" t="n">
         <v>17.70999999999999</v>
@@ -9255,7 +9251,7 @@
         <v>6.600000000000005</v>
       </c>
       <c r="K177" t="n">
-        <v>9.090909090908857</v>
+        <v>0</v>
       </c>
       <c r="L177" t="n">
         <v>17.70999999999999</v>
@@ -9306,7 +9302,7 @@
         <v>6.600000000000005</v>
       </c>
       <c r="K178" t="n">
-        <v>19.99999999999986</v>
+        <v>0</v>
       </c>
       <c r="L178" t="n">
         <v>17.70999999999999</v>
@@ -9357,7 +9353,7 @@
         <v>6.600000000000005</v>
       </c>
       <c r="K179" t="n">
-        <v>11.11111111111085</v>
+        <v>0</v>
       </c>
       <c r="L179" t="n">
         <v>17.70999999999999</v>
@@ -9408,7 +9404,7 @@
         <v>6.600000000000005</v>
       </c>
       <c r="K180" t="n">
-        <v>11.11111111111085</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L180" t="n">
         <v>17.70999999999999</v>
@@ -9459,7 +9455,7 @@
         <v>6.600000000000005</v>
       </c>
       <c r="K181" t="n">
-        <v>11.11111111111085</v>
+        <v>0</v>
       </c>
       <c r="L181" t="n">
         <v>17.71999999999999</v>
@@ -9510,7 +9506,7 @@
         <v>6.700000000000003</v>
       </c>
       <c r="K182" t="n">
-        <v>0</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L182" t="n">
         <v>17.70999999999999</v>
@@ -9561,7 +9557,7 @@
         <v>6.800000000000001</v>
       </c>
       <c r="K183" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L183" t="n">
         <v>17.70999999999999</v>
@@ -9612,7 +9608,7 @@
         <v>6.899999999999999</v>
       </c>
       <c r="K184" t="n">
-        <v>0</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L184" t="n">
         <v>17.69999999999999</v>
@@ -9663,7 +9659,7 @@
         <v>6.999999999999996</v>
       </c>
       <c r="K185" t="n">
-        <v>20.00000000000014</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L185" t="n">
         <v>17.68999999999999</v>
@@ -9714,7 +9710,7 @@
         <v>6.999999999999996</v>
       </c>
       <c r="K186" t="n">
-        <v>11.11111111111102</v>
+        <v>0</v>
       </c>
       <c r="L186" t="n">
         <v>17.67999999999999</v>
@@ -9969,7 +9965,7 @@
         <v>7.099999999999998</v>
       </c>
       <c r="K191" t="n">
-        <v>25.00000000000011</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L191" t="n">
         <v>17.68999999999999</v>
@@ -10020,7 +10016,7 @@
         <v>7.099999999999998</v>
       </c>
       <c r="K192" t="n">
-        <v>14.28571428571458</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L192" t="n">
         <v>17.70999999999999</v>
@@ -10071,7 +10067,7 @@
         <v>7.099999999999998</v>
       </c>
       <c r="K193" t="n">
-        <v>14.28571428571458</v>
+        <v>100</v>
       </c>
       <c r="L193" t="n">
         <v>17.71999999999999</v>
@@ -10122,7 +10118,7 @@
         <v>7.099999999999998</v>
       </c>
       <c r="K194" t="n">
-        <v>14.28571428571458</v>
+        <v>100</v>
       </c>
       <c r="L194" t="n">
         <v>17.73999999999999</v>
@@ -10173,7 +10169,7 @@
         <v>7.099999999999998</v>
       </c>
       <c r="K195" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L195" t="n">
         <v>17.75</v>
@@ -10224,7 +10220,7 @@
         <v>7.099999999999998</v>
       </c>
       <c r="K196" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L196" t="n">
         <v>17.76</v>
@@ -10275,7 +10271,7 @@
         <v>7.099999999999998</v>
       </c>
       <c r="K197" t="n">
-        <v>20.00000000000057</v>
+        <v>100</v>
       </c>
       <c r="L197" t="n">
         <v>17.77</v>
@@ -10326,7 +10322,7 @@
         <v>7.099999999999998</v>
       </c>
       <c r="K198" t="n">
-        <v>20.00000000000057</v>
+        <v>100</v>
       </c>
       <c r="L198" t="n">
         <v>17.78</v>
@@ -10377,7 +10373,7 @@
         <v>7.099999999999998</v>
       </c>
       <c r="K199" t="n">
-        <v>20.00000000000057</v>
+        <v>100</v>
       </c>
       <c r="L199" t="n">
         <v>17.79000000000001</v>
@@ -10427,9 +10423,7 @@
       <c r="J200" t="n">
         <v>7.099999999999998</v>
       </c>
-      <c r="K200" t="n">
-        <v>20.00000000000057</v>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>17.80000000000001</v>
       </c>
@@ -10478,9 +10472,7 @@
       <c r="J201" t="n">
         <v>7.099999999999998</v>
       </c>
-      <c r="K201" t="n">
-        <v>20.00000000000057</v>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>17.80000000000001</v>
       </c>
@@ -10529,9 +10521,7 @@
       <c r="J202" t="n">
         <v>7.099999999999998</v>
       </c>
-      <c r="K202" t="n">
-        <v>50.00000000000044</v>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>17.80000000000001</v>
       </c>
@@ -10581,7 +10571,7 @@
         <v>7.199999999999999</v>
       </c>
       <c r="K203" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L203" t="n">
         <v>17.79000000000001</v>
@@ -10632,7 +10622,7 @@
         <v>7.199999999999999</v>
       </c>
       <c r="K204" t="n">
-        <v>33.33333333333254</v>
+        <v>-100</v>
       </c>
       <c r="L204" t="n">
         <v>17.78</v>
@@ -10683,7 +10673,7 @@
         <v>7.300000000000001</v>
       </c>
       <c r="K205" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L205" t="n">
         <v>17.78</v>
@@ -10734,7 +10724,7 @@
         <v>7.400000000000002</v>
       </c>
       <c r="K206" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L206" t="n">
         <v>17.77</v>
@@ -10785,7 +10775,7 @@
         <v>7.400000000000002</v>
       </c>
       <c r="K207" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L207" t="n">
         <v>17.76</v>
@@ -10836,7 +10826,7 @@
         <v>7.400000000000002</v>
       </c>
       <c r="K208" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L208" t="n">
         <v>17.75</v>
@@ -10887,7 +10877,7 @@
         <v>7.400000000000002</v>
       </c>
       <c r="K209" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L209" t="n">
         <v>17.73999999999999</v>
@@ -10938,7 +10928,7 @@
         <v>7.400000000000002</v>
       </c>
       <c r="K210" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L210" t="n">
         <v>17.72999999999999</v>
@@ -11040,7 +11030,7 @@
         <v>7.5</v>
       </c>
       <c r="K212" t="n">
-        <v>-49.99999999999956</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L212" t="n">
         <v>17.69999999999999</v>
@@ -11091,7 +11081,7 @@
         <v>7.599999999999998</v>
       </c>
       <c r="K213" t="n">
-        <v>-20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L213" t="n">
         <v>17.69999999999999</v>
@@ -11142,7 +11132,7 @@
         <v>7.599999999999998</v>
       </c>
       <c r="K214" t="n">
-        <v>-20.00000000000028</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L214" t="n">
         <v>17.69999999999999</v>
@@ -11193,7 +11183,7 @@
         <v>7.699999999999999</v>
       </c>
       <c r="K215" t="n">
-        <v>0</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L215" t="n">
         <v>17.69999999999999</v>
@@ -11244,7 +11234,7 @@
         <v>7.800000000000001</v>
       </c>
       <c r="K216" t="n">
-        <v>-14.28571428571443</v>
+        <v>0</v>
       </c>
       <c r="L216" t="n">
         <v>17.69999999999999</v>
@@ -11295,7 +11285,7 @@
         <v>7.800000000000001</v>
       </c>
       <c r="K217" t="n">
-        <v>-14.28571428571443</v>
+        <v>0</v>
       </c>
       <c r="L217" t="n">
         <v>17.69999999999999</v>
@@ -11346,7 +11336,7 @@
         <v>7.800000000000001</v>
       </c>
       <c r="K218" t="n">
-        <v>-14.28571428571443</v>
+        <v>0</v>
       </c>
       <c r="L218" t="n">
         <v>17.69999999999999</v>
@@ -11397,7 +11387,7 @@
         <v>7.800000000000001</v>
       </c>
       <c r="K219" t="n">
-        <v>-14.28571428571443</v>
+        <v>0</v>
       </c>
       <c r="L219" t="n">
         <v>17.69999999999999</v>
@@ -11448,7 +11438,7 @@
         <v>7.800000000000001</v>
       </c>
       <c r="K220" t="n">
-        <v>-14.28571428571443</v>
+        <v>0</v>
       </c>
       <c r="L220" t="n">
         <v>17.69999999999999</v>
@@ -11499,7 +11489,7 @@
         <v>7.800000000000001</v>
       </c>
       <c r="K221" t="n">
-        <v>-14.28571428571443</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L221" t="n">
         <v>17.69999999999999</v>
@@ -11550,7 +11540,7 @@
         <v>7.800000000000001</v>
       </c>
       <c r="K222" t="n">
-        <v>-14.28571428571443</v>
+        <v>0</v>
       </c>
       <c r="L222" t="n">
         <v>17.70999999999999</v>
@@ -11601,7 +11591,7 @@
         <v>7.899999999999999</v>
       </c>
       <c r="K223" t="n">
-        <v>-14.285714285714</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L223" t="n">
         <v>17.69999999999999</v>
@@ -11652,7 +11642,7 @@
         <v>7.899999999999999</v>
       </c>
       <c r="K224" t="n">
-        <v>-14.285714285714</v>
+        <v>-100</v>
       </c>
       <c r="L224" t="n">
         <v>17.68999999999999</v>
@@ -11703,7 +11693,7 @@
         <v>8</v>
       </c>
       <c r="K225" t="n">
-        <v>-42.857142857143</v>
+        <v>-100</v>
       </c>
       <c r="L225" t="n">
         <v>17.65999999999999</v>
@@ -11754,7 +11744,7 @@
         <v>8</v>
       </c>
       <c r="K226" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L226" t="n">
         <v>17.63999999999999</v>
@@ -11805,7 +11795,7 @@
         <v>8.100000000000001</v>
       </c>
       <c r="K227" t="n">
-        <v>-14.285714285714</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L227" t="n">
         <v>17.62999999999999</v>
@@ -11856,7 +11846,7 @@
         <v>8.100000000000001</v>
       </c>
       <c r="K228" t="n">
-        <v>-14.285714285714</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L228" t="n">
         <v>17.61999999999999</v>
@@ -11907,7 +11897,7 @@
         <v>8.200000000000003</v>
       </c>
       <c r="K229" t="n">
-        <v>-24.99999999999989</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L229" t="n">
         <v>17.59999999999999</v>
@@ -11958,7 +11948,7 @@
         <v>8.300000000000004</v>
       </c>
       <c r="K230" t="n">
-        <v>-11.11111111111085</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L230" t="n">
         <v>17.58999999999999</v>
@@ -12009,7 +11999,7 @@
         <v>8.300000000000004</v>
       </c>
       <c r="K231" t="n">
-        <v>-11.11111111111085</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L231" t="n">
         <v>17.57999999999999</v>
@@ -12111,7 +12101,7 @@
         <v>8.300000000000004</v>
       </c>
       <c r="K233" t="n">
-        <v>-14.28571428571385</v>
+        <v>0</v>
       </c>
       <c r="L233" t="n">
         <v>17.56999999999999</v>
@@ -12162,7 +12152,7 @@
         <v>8.300000000000004</v>
       </c>
       <c r="K234" t="n">
-        <v>-14.28571428571385</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L234" t="n">
         <v>17.56999999999999</v>
@@ -12213,7 +12203,7 @@
         <v>8.400000000000006</v>
       </c>
       <c r="K235" t="n">
-        <v>-42.85714285714256</v>
+        <v>0</v>
       </c>
       <c r="L235" t="n">
         <v>17.56999999999999</v>
@@ -12264,7 +12254,7 @@
         <v>8.500000000000007</v>
       </c>
       <c r="K236" t="n">
-        <v>-14.28571428571385</v>
+        <v>0</v>
       </c>
       <c r="L236" t="n">
         <v>17.57999999999999</v>
@@ -12315,7 +12305,7 @@
         <v>8.500000000000007</v>
       </c>
       <c r="K237" t="n">
-        <v>-14.28571428571385</v>
+        <v>0</v>
       </c>
       <c r="L237" t="n">
         <v>17.57999999999999</v>
@@ -12366,7 +12356,7 @@
         <v>8.600000000000005</v>
       </c>
       <c r="K238" t="n">
-        <v>0</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L238" t="n">
         <v>17.58999999999999</v>
@@ -12417,7 +12407,7 @@
         <v>8.600000000000005</v>
       </c>
       <c r="K239" t="n">
-        <v>0</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L239" t="n">
         <v>17.60999999999999</v>
@@ -12468,7 +12458,7 @@
         <v>8.600000000000005</v>
       </c>
       <c r="K240" t="n">
-        <v>0</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L240" t="n">
         <v>17.61999999999999</v>
@@ -12519,7 +12509,7 @@
         <v>8.700000000000003</v>
       </c>
       <c r="K241" t="n">
-        <v>-11.11111111111085</v>
+        <v>0</v>
       </c>
       <c r="L241" t="n">
         <v>17.61999999999999</v>
@@ -12570,7 +12560,7 @@
         <v>8.700000000000003</v>
       </c>
       <c r="K242" t="n">
-        <v>-11.11111111111085</v>
+        <v>0</v>
       </c>
       <c r="L242" t="n">
         <v>17.61999999999999</v>
@@ -12672,7 +12662,7 @@
         <v>8.700000000000003</v>
       </c>
       <c r="K244" t="n">
-        <v>0</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L244" t="n">
         <v>17.61999999999999</v>
@@ -12723,7 +12713,7 @@
         <v>8.700000000000003</v>
       </c>
       <c r="K245" t="n">
-        <v>14.28571428571443</v>
+        <v>0</v>
       </c>
       <c r="L245" t="n">
         <v>17.62999999999999</v>
@@ -12774,7 +12764,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="K246" t="n">
-        <v>24.99999999999989</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L246" t="n">
         <v>17.63999999999999</v>
@@ -12825,7 +12815,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="K247" t="n">
-        <v>14.285714285714</v>
+        <v>0</v>
       </c>
       <c r="L247" t="n">
         <v>17.64999999999999</v>
@@ -12876,7 +12866,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="K248" t="n">
-        <v>14.285714285714</v>
+        <v>0</v>
       </c>
       <c r="L248" t="n">
         <v>17.64999999999999</v>
@@ -12927,7 +12917,7 @@
         <v>8.900000000000002</v>
       </c>
       <c r="K249" t="n">
-        <v>42.857142857143</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L249" t="n">
         <v>17.65999999999999</v>
@@ -13029,7 +13019,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="K251" t="n">
-        <v>11.11111111111093</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L251" t="n">
         <v>17.65999999999999</v>
@@ -13131,7 +13121,7 @@
         <v>9.399999999999995</v>
       </c>
       <c r="K253" t="n">
-        <v>9.090909090908973</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L253" t="n">
         <v>17.66999999999999</v>
@@ -13182,7 +13172,7 @@
         <v>9.499999999999996</v>
       </c>
       <c r="K254" t="n">
-        <v>16.66666666666671</v>
+        <v>25.00000000000011</v>
       </c>
       <c r="L254" t="n">
         <v>17.68999999999999</v>
@@ -13233,7 +13223,7 @@
         <v>9.499999999999996</v>
       </c>
       <c r="K255" t="n">
-        <v>27.27272727272756</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L255" t="n">
         <v>17.70999999999999</v>
@@ -13284,7 +13274,7 @@
         <v>9.599999999999994</v>
       </c>
       <c r="K256" t="n">
-        <v>27.27272727272733</v>
+        <v>25.00000000000011</v>
       </c>
       <c r="L256" t="n">
         <v>17.73</v>
@@ -13335,7 +13325,7 @@
         <v>9.599999999999994</v>
       </c>
       <c r="K257" t="n">
-        <v>27.27272727272733</v>
+        <v>25.00000000000011</v>
       </c>
       <c r="L257" t="n">
         <v>17.75</v>
@@ -13386,7 +13376,7 @@
         <v>9.699999999999996</v>
       </c>
       <c r="K258" t="n">
-        <v>27.27272727272756</v>
+        <v>25.00000000000011</v>
       </c>
       <c r="L258" t="n">
         <v>17.78</v>
@@ -13437,7 +13427,7 @@
         <v>9.699999999999996</v>
       </c>
       <c r="K259" t="n">
-        <v>27.27272727272756</v>
+        <v>66.66666666666707</v>
       </c>
       <c r="L259" t="n">
         <v>17.8</v>
@@ -13488,7 +13478,7 @@
         <v>9.699999999999996</v>
       </c>
       <c r="K260" t="n">
-        <v>27.27272727272756</v>
+        <v>60.00000000000056</v>
       </c>
       <c r="L260" t="n">
         <v>17.84</v>
@@ -13539,7 +13529,7 @@
         <v>9.799999999999997</v>
       </c>
       <c r="K261" t="n">
-        <v>45.45454545454569</v>
+        <v>100</v>
       </c>
       <c r="L261" t="n">
         <v>17.88</v>
@@ -13590,7 +13580,7 @@
         <v>9.899999999999999</v>
       </c>
       <c r="K262" t="n">
-        <v>33.33333333333333</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L262" t="n">
         <v>17.92</v>
@@ -13641,7 +13631,7 @@
         <v>9.899999999999999</v>
       </c>
       <c r="K263" t="n">
-        <v>33.33333333333333</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L263" t="n">
         <v>17.95</v>
@@ -13692,7 +13682,7 @@
         <v>9.899999999999999</v>
       </c>
       <c r="K264" t="n">
-        <v>33.33333333333333</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L264" t="n">
         <v>17.97</v>
@@ -13794,7 +13784,7 @@
         <v>9.899999999999999</v>
       </c>
       <c r="K266" t="n">
-        <v>27.27272727272739</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L266" t="n">
         <v>18</v>
@@ -13845,7 +13835,7 @@
         <v>10</v>
       </c>
       <c r="K267" t="n">
-        <v>16.66666666666662</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L267" t="n">
         <v>18</v>
@@ -13896,7 +13886,7 @@
         <v>10</v>
       </c>
       <c r="K268" t="n">
-        <v>16.66666666666662</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L268" t="n">
         <v>17.99</v>
@@ -13947,7 +13937,7 @@
         <v>10.1</v>
       </c>
       <c r="K269" t="n">
-        <v>16.66666666666662</v>
+        <v>0</v>
       </c>
       <c r="L269" t="n">
         <v>17.99</v>
@@ -13998,7 +13988,7 @@
         <v>10.2</v>
       </c>
       <c r="K270" t="n">
-        <v>27.27272727272697</v>
+        <v>-50</v>
       </c>
       <c r="L270" t="n">
         <v>17.98</v>
@@ -14049,7 +14039,7 @@
         <v>10.2</v>
       </c>
       <c r="K271" t="n">
-        <v>19.99999999999986</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L271" t="n">
         <v>17.96</v>
@@ -14100,7 +14090,7 @@
         <v>10.2</v>
       </c>
       <c r="K272" t="n">
-        <v>33.33333333333281</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L272" t="n">
         <v>17.95</v>
@@ -14151,7 +14141,7 @@
         <v>10.3</v>
       </c>
       <c r="K273" t="n">
-        <v>33.33333333333307</v>
+        <v>0</v>
       </c>
       <c r="L273" t="n">
         <v>17.95</v>
@@ -14202,7 +14192,7 @@
         <v>10.40000000000001</v>
       </c>
       <c r="K274" t="n">
-        <v>11.11111111111076</v>
+        <v>-20</v>
       </c>
       <c r="L274" t="n">
         <v>17.94</v>
@@ -14253,7 +14243,7 @@
         <v>10.40000000000001</v>
       </c>
       <c r="K275" t="n">
-        <v>11.11111111111076</v>
+        <v>-20</v>
       </c>
       <c r="L275" t="n">
         <v>17.93</v>
@@ -14457,7 +14447,7 @@
         <v>10.60000000000001</v>
       </c>
       <c r="K279" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L279" t="n">
         <v>17.92</v>
@@ -14508,7 +14498,7 @@
         <v>10.70000000000001</v>
       </c>
       <c r="K280" t="n">
-        <v>-19.99999999999972</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L280" t="n">
         <v>17.91</v>
@@ -14559,7 +14549,7 @@
         <v>10.8</v>
       </c>
       <c r="K281" t="n">
-        <v>-20.00000000000014</v>
+        <v>0</v>
       </c>
       <c r="L281" t="n">
         <v>17.91</v>
@@ -14610,7 +14600,7 @@
         <v>10.8</v>
       </c>
       <c r="K282" t="n">
-        <v>-11.1111111111112</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L282" t="n">
         <v>17.91</v>
@@ -14661,7 +14651,7 @@
         <v>10.8</v>
       </c>
       <c r="K283" t="n">
-        <v>-11.1111111111112</v>
+        <v>0</v>
       </c>
       <c r="L283" t="n">
         <v>17.9</v>
@@ -14712,7 +14702,7 @@
         <v>10.90000000000001</v>
       </c>
       <c r="K284" t="n">
-        <v>0</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L284" t="n">
         <v>17.91</v>
@@ -14763,7 +14753,7 @@
         <v>10.90000000000001</v>
       </c>
       <c r="K285" t="n">
-        <v>0</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L285" t="n">
         <v>17.92</v>
@@ -14814,7 +14804,7 @@
         <v>11.00000000000001</v>
       </c>
       <c r="K286" t="n">
-        <v>-9.09090909090915</v>
+        <v>0</v>
       </c>
       <c r="L286" t="n">
         <v>17.92</v>
@@ -14865,7 +14855,7 @@
         <v>11.00000000000001</v>
       </c>
       <c r="K287" t="n">
-        <v>0</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L287" t="n">
         <v>17.92</v>
@@ -14916,7 +14906,7 @@
         <v>11.1</v>
       </c>
       <c r="K288" t="n">
-        <v>-9.090909090908857</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L288" t="n">
         <v>17.9</v>
@@ -14967,7 +14957,7 @@
         <v>11.2</v>
       </c>
       <c r="K289" t="n">
-        <v>-9.090909090909207</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L289" t="n">
         <v>17.9</v>
@@ -15171,7 +15161,7 @@
         <v>11.2</v>
       </c>
       <c r="K293" t="n">
-        <v>-11.11111111111129</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L293" t="n">
         <v>17.91</v>
@@ -15222,7 +15212,7 @@
         <v>11.2</v>
       </c>
       <c r="K294" t="n">
-        <v>0</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L294" t="n">
         <v>17.9</v>
@@ -15375,7 +15365,7 @@
         <v>11.2</v>
       </c>
       <c r="K297" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L297" t="n">
         <v>17.89</v>
@@ -15426,7 +15416,7 @@
         <v>11.3</v>
       </c>
       <c r="K298" t="n">
-        <v>-25.00000000000011</v>
+        <v>-100</v>
       </c>
       <c r="L298" t="n">
         <v>17.89</v>
@@ -15528,7 +15518,7 @@
         <v>11.6</v>
       </c>
       <c r="K300" t="n">
-        <v>-11.11111111111137</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L300" t="n">
         <v>17.87</v>
@@ -15579,7 +15569,7 @@
         <v>11.7</v>
       </c>
       <c r="K301" t="n">
-        <v>-11.11111111111093</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L301" t="n">
         <v>17.86</v>
@@ -15630,7 +15620,7 @@
         <v>11.7</v>
       </c>
       <c r="K302" t="n">
-        <v>-11.11111111111093</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L302" t="n">
         <v>17.85</v>
@@ -15681,7 +15671,7 @@
         <v>11.8</v>
       </c>
       <c r="K303" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L303" t="n">
         <v>17.83</v>
@@ -15732,7 +15722,7 @@
         <v>11.9</v>
       </c>
       <c r="K304" t="n">
-        <v>-20</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L304" t="n">
         <v>17.82</v>
@@ -15783,7 +15773,7 @@
         <v>12</v>
       </c>
       <c r="K305" t="n">
-        <v>-27.27272727272739</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L305" t="n">
         <v>17.8</v>
@@ -15834,7 +15824,7 @@
         <v>12</v>
       </c>
       <c r="K306" t="n">
-        <v>-20</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L306" t="n">
         <v>17.78</v>
@@ -15885,7 +15875,7 @@
         <v>12.1</v>
       </c>
       <c r="K307" t="n">
-        <v>-9.090909090908914</v>
+        <v>0</v>
       </c>
       <c r="L307" t="n">
         <v>17.77</v>
@@ -15936,7 +15926,7 @@
         <v>12.20000000000001</v>
       </c>
       <c r="K308" t="n">
-        <v>-9.090909090909207</v>
+        <v>-24.99999999999967</v>
       </c>
       <c r="L308" t="n">
         <v>17.76</v>
@@ -15987,7 +15977,7 @@
         <v>12.3</v>
       </c>
       <c r="K309" t="n">
-        <v>-27.27272727272697</v>
+        <v>-14.28571428571385</v>
       </c>
       <c r="L309" t="n">
         <v>17.73</v>
@@ -16038,7 +16028,7 @@
         <v>12.4</v>
       </c>
       <c r="K310" t="n">
-        <v>-16.66666666666662</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L310" t="n">
         <v>17.73</v>
@@ -16089,7 +16079,7 @@
         <v>12.4</v>
       </c>
       <c r="K311" t="n">
-        <v>-16.66666666666662</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L311" t="n">
         <v>17.71999999999999</v>
@@ -16140,7 +16130,7 @@
         <v>12.4</v>
       </c>
       <c r="K312" t="n">
-        <v>-16.66666666666662</v>
+        <v>0</v>
       </c>
       <c r="L312" t="n">
         <v>17.70999999999999</v>
@@ -16191,7 +16181,7 @@
         <v>12.4</v>
       </c>
       <c r="K313" t="n">
-        <v>-16.66666666666662</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L313" t="n">
         <v>17.70999999999999</v>
@@ -16242,7 +16232,7 @@
         <v>12.5</v>
       </c>
       <c r="K314" t="n">
-        <v>-23.07692307692291</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L314" t="n">
         <v>17.68999999999999</v>
@@ -16293,7 +16283,7 @@
         <v>12.5</v>
       </c>
       <c r="K315" t="n">
-        <v>-23.07692307692291</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L315" t="n">
         <v>17.67999999999999</v>
@@ -16344,7 +16334,7 @@
         <v>12.6</v>
       </c>
       <c r="K316" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L316" t="n">
         <v>17.67999999999999</v>
@@ -16395,7 +16385,7 @@
         <v>12.6</v>
       </c>
       <c r="K317" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L317" t="n">
         <v>17.66999999999999</v>
@@ -16446,7 +16436,7 @@
         <v>12.7</v>
       </c>
       <c r="K318" t="n">
-        <v>0</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L318" t="n">
         <v>17.67999999999999</v>
@@ -16497,7 +16487,7 @@
         <v>12.7</v>
       </c>
       <c r="K319" t="n">
-        <v>-7.692307692307525</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L319" t="n">
         <v>17.69999999999999</v>
@@ -16548,7 +16538,7 @@
         <v>12.8</v>
       </c>
       <c r="K320" t="n">
-        <v>16.66666666666662</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L320" t="n">
         <v>17.71999999999999</v>
@@ -16599,7 +16589,7 @@
         <v>12.9</v>
       </c>
       <c r="K321" t="n">
-        <v>0</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L321" t="n">
         <v>17.73</v>
@@ -16650,7 +16640,7 @@
         <v>12.9</v>
       </c>
       <c r="K322" t="n">
-        <v>0</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L322" t="n">
         <v>17.74</v>
@@ -16701,7 +16691,7 @@
         <v>12.9</v>
       </c>
       <c r="K323" t="n">
-        <v>9.090909090909268</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L323" t="n">
         <v>17.75</v>
@@ -16752,7 +16742,7 @@
         <v>12.9</v>
       </c>
       <c r="K324" t="n">
-        <v>0</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L324" t="n">
         <v>17.77</v>
@@ -16956,7 +16946,7 @@
         <v>13.1</v>
       </c>
       <c r="K328" t="n">
-        <v>11.11111111111137</v>
+        <v>0</v>
       </c>
       <c r="L328" t="n">
         <v>17.79</v>
@@ -17007,7 +16997,7 @@
         <v>13.2</v>
       </c>
       <c r="K329" t="n">
-        <v>11.11111111111093</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L329" t="n">
         <v>17.78</v>
@@ -17058,7 +17048,7 @@
         <v>13.2</v>
       </c>
       <c r="K330" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L330" t="n">
         <v>17.76</v>
@@ -17109,7 +17099,7 @@
         <v>13.2</v>
       </c>
       <c r="K331" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L331" t="n">
         <v>17.75</v>
@@ -17160,7 +17150,7 @@
         <v>13.3</v>
       </c>
       <c r="K332" t="n">
-        <v>-11.11111111111093</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L332" t="n">
         <v>17.73</v>
@@ -17211,7 +17201,7 @@
         <v>13.3</v>
       </c>
       <c r="K333" t="n">
-        <v>-11.11111111111093</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L333" t="n">
         <v>17.70999999999999</v>
@@ -17262,7 +17252,7 @@
         <v>13.3</v>
       </c>
       <c r="K334" t="n">
-        <v>0</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L334" t="n">
         <v>17.68999999999999</v>
@@ -17313,7 +17303,7 @@
         <v>13.4</v>
       </c>
       <c r="K335" t="n">
-        <v>11.11111111111093</v>
+        <v>0</v>
       </c>
       <c r="L335" t="n">
         <v>17.68999999999999</v>
@@ -17364,7 +17354,7 @@
         <v>13.4</v>
       </c>
       <c r="K336" t="n">
-        <v>0</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L336" t="n">
         <v>17.68999999999999</v>
@@ -17415,7 +17405,7 @@
         <v>13.4</v>
       </c>
       <c r="K337" t="n">
-        <v>0</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L337" t="n">
         <v>17.67999999999999</v>
@@ -17466,7 +17456,7 @@
         <v>13.59999999999999</v>
       </c>
       <c r="K338" t="n">
-        <v>11.11111111111093</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L338" t="n">
         <v>17.68999999999999</v>
@@ -17517,7 +17507,7 @@
         <v>13.59999999999999</v>
       </c>
       <c r="K339" t="n">
-        <v>11.11111111111093</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L339" t="n">
         <v>17.70999999999999</v>
@@ -17568,7 +17558,7 @@
         <v>13.69999999999999</v>
       </c>
       <c r="K340" t="n">
-        <v>-11.11111111111093</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L340" t="n">
         <v>17.71999999999999</v>
@@ -17619,7 +17609,7 @@
         <v>13.79999999999999</v>
       </c>
       <c r="K341" t="n">
-        <v>11.11111111111093</v>
+        <v>60.00000000000028</v>
       </c>
       <c r="L341" t="n">
         <v>17.73999999999999</v>
@@ -17670,7 +17660,7 @@
         <v>13.79999999999999</v>
       </c>
       <c r="K342" t="n">
-        <v>11.11111111111093</v>
+        <v>60.00000000000028</v>
       </c>
       <c r="L342" t="n">
         <v>17.77</v>
@@ -17721,7 +17711,7 @@
         <v>13.79999999999999</v>
       </c>
       <c r="K343" t="n">
-        <v>11.11111111111093</v>
+        <v>60.00000000000028</v>
       </c>
       <c r="L343" t="n">
         <v>17.8</v>
@@ -17772,7 +17762,7 @@
         <v>13.89999999999999</v>
       </c>
       <c r="K344" t="n">
-        <v>0</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L344" t="n">
         <v>17.82</v>
@@ -17823,7 +17813,7 @@
         <v>13.99999999999999</v>
       </c>
       <c r="K345" t="n">
-        <v>20.00000000000014</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L345" t="n">
         <v>17.84</v>
@@ -17874,7 +17864,7 @@
         <v>13.99999999999999</v>
       </c>
       <c r="K346" t="n">
-        <v>20.00000000000014</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L346" t="n">
         <v>17.86</v>
@@ -17925,7 +17915,7 @@
         <v>14.09999999999998</v>
       </c>
       <c r="K347" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L347" t="n">
         <v>17.87</v>
@@ -17976,7 +17966,7 @@
         <v>14.19999999999998</v>
       </c>
       <c r="K348" t="n">
-        <v>9.090909090909033</v>
+        <v>0</v>
       </c>
       <c r="L348" t="n">
         <v>17.87</v>
@@ -18027,7 +18017,7 @@
         <v>14.19999999999998</v>
       </c>
       <c r="K349" t="n">
-        <v>20.00000000000028</v>
+        <v>20</v>
       </c>
       <c r="L349" t="n">
         <v>17.87</v>
@@ -18078,7 +18068,7 @@
         <v>14.19999999999998</v>
       </c>
       <c r="K350" t="n">
-        <v>20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L350" t="n">
         <v>17.88</v>
@@ -18129,7 +18119,7 @@
         <v>14.19999999999998</v>
       </c>
       <c r="K351" t="n">
-        <v>20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L351" t="n">
         <v>17.88</v>
@@ -18180,7 +18170,7 @@
         <v>14.19999999999998</v>
       </c>
       <c r="K352" t="n">
-        <v>33.3333333333336</v>
+        <v>0</v>
       </c>
       <c r="L352" t="n">
         <v>17.88</v>
@@ -18231,7 +18221,7 @@
         <v>14.19999999999998</v>
       </c>
       <c r="K353" t="n">
-        <v>33.3333333333336</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L353" t="n">
         <v>17.88</v>
@@ -18282,7 +18272,7 @@
         <v>14.29999999999998</v>
       </c>
       <c r="K354" t="n">
-        <v>20.00000000000028</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L354" t="n">
         <v>17.88</v>
@@ -18333,7 +18323,7 @@
         <v>14.39999999999998</v>
       </c>
       <c r="K355" t="n">
-        <v>20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L355" t="n">
         <v>17.88</v>
@@ -18384,7 +18374,7 @@
         <v>14.49999999999998</v>
       </c>
       <c r="K356" t="n">
-        <v>9.090909090909385</v>
+        <v>0</v>
       </c>
       <c r="L356" t="n">
         <v>17.87</v>
@@ -18435,7 +18425,7 @@
         <v>14.59999999999997</v>
       </c>
       <c r="K357" t="n">
-        <v>16.66666666666691</v>
+        <v>0</v>
       </c>
       <c r="L357" t="n">
         <v>17.88</v>
@@ -18588,7 +18578,7 @@
         <v>14.59999999999997</v>
       </c>
       <c r="K360" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L360" t="n">
         <v>17.88</v>
@@ -18639,7 +18629,7 @@
         <v>14.69999999999997</v>
       </c>
       <c r="K361" t="n">
-        <v>11.11111111111146</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L361" t="n">
         <v>17.89</v>
@@ -18690,7 +18680,7 @@
         <v>14.69999999999997</v>
       </c>
       <c r="K362" t="n">
-        <v>11.11111111111146</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L362" t="n">
         <v>17.9</v>
@@ -18741,7 +18731,7 @@
         <v>14.69999999999997</v>
       </c>
       <c r="K363" t="n">
-        <v>11.11111111111146</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L363" t="n">
         <v>17.91</v>
@@ -18792,7 +18782,7 @@
         <v>14.69999999999997</v>
       </c>
       <c r="K364" t="n">
-        <v>25.00000000000033</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L364" t="n">
         <v>17.93</v>
@@ -18843,7 +18833,7 @@
         <v>14.69999999999997</v>
       </c>
       <c r="K365" t="n">
-        <v>14.28571428571472</v>
+        <v>100</v>
       </c>
       <c r="L365" t="n">
         <v>17.94</v>
@@ -18894,7 +18884,7 @@
         <v>14.79999999999998</v>
       </c>
       <c r="K366" t="n">
-        <v>25.00000000000067</v>
+        <v>100</v>
       </c>
       <c r="L366" t="n">
         <v>17.97</v>
@@ -18945,7 +18935,7 @@
         <v>14.79999999999998</v>
       </c>
       <c r="K367" t="n">
-        <v>42.85714285714344</v>
+        <v>100</v>
       </c>
       <c r="L367" t="n">
         <v>17.99</v>
@@ -18996,7 +18986,7 @@
         <v>14.89999999999998</v>
       </c>
       <c r="K368" t="n">
-        <v>14.28571428571458</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L368" t="n">
         <v>18</v>
@@ -19047,7 +19037,7 @@
         <v>14.99999999999998</v>
       </c>
       <c r="K369" t="n">
-        <v>25.00000000000044</v>
+        <v>50</v>
       </c>
       <c r="L369" t="n">
         <v>18.02</v>
@@ -19098,7 +19088,7 @@
         <v>15.09999999999998</v>
       </c>
       <c r="K370" t="n">
-        <v>11.11111111111129</v>
+        <v>0</v>
       </c>
       <c r="L370" t="n">
         <v>18.02999999999999</v>
@@ -19149,7 +19139,7 @@
         <v>15.19999999999998</v>
       </c>
       <c r="K371" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L371" t="n">
         <v>18.02</v>
@@ -19200,7 +19190,7 @@
         <v>15.19999999999998</v>
       </c>
       <c r="K372" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L372" t="n">
         <v>18.01</v>
@@ -19251,7 +19241,7 @@
         <v>15.19999999999998</v>
       </c>
       <c r="K373" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L373" t="n">
         <v>18</v>
@@ -19302,7 +19292,7 @@
         <v>15.29999999999998</v>
       </c>
       <c r="K374" t="n">
-        <v>19.99999999999986</v>
+        <v>0</v>
       </c>
       <c r="L374" t="n">
         <v>18</v>
@@ -19353,7 +19343,7 @@
         <v>15.39999999999998</v>
       </c>
       <c r="K375" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L375" t="n">
         <v>17.99</v>
@@ -19404,7 +19394,7 @@
         <v>15.39999999999998</v>
       </c>
       <c r="K376" t="n">
-        <v>11.11111111111076</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L376" t="n">
         <v>17.97</v>
@@ -19455,7 +19445,7 @@
         <v>15.39999999999998</v>
       </c>
       <c r="K377" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L377" t="n">
         <v>17.95</v>
@@ -19506,7 +19496,7 @@
         <v>15.39999999999998</v>
       </c>
       <c r="K378" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L378" t="n">
         <v>17.94</v>
@@ -19557,7 +19547,7 @@
         <v>15.39999999999998</v>
       </c>
       <c r="K379" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L379" t="n">
         <v>17.92</v>
@@ -19608,7 +19598,7 @@
         <v>15.49999999999998</v>
       </c>
       <c r="K380" t="n">
-        <v>-11.11111111111076</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L380" t="n">
         <v>17.9</v>
@@ -19659,7 +19649,7 @@
         <v>15.59999999999998</v>
       </c>
       <c r="K381" t="n">
-        <v>-11.1111111111112</v>
+        <v>0</v>
       </c>
       <c r="L381" t="n">
         <v>17.9</v>
@@ -19710,7 +19700,7 @@
         <v>15.59999999999998</v>
       </c>
       <c r="K382" t="n">
-        <v>-11.1111111111112</v>
+        <v>0</v>
       </c>
       <c r="L382" t="n">
         <v>17.9</v>
@@ -19761,7 +19751,7 @@
         <v>15.59999999999998</v>
       </c>
       <c r="K383" t="n">
-        <v>-11.1111111111112</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L383" t="n">
         <v>17.9</v>
@@ -19812,7 +19802,7 @@
         <v>15.59999999999998</v>
       </c>
       <c r="K384" t="n">
-        <v>-11.1111111111112</v>
+        <v>0</v>
       </c>
       <c r="L384" t="n">
         <v>17.89</v>
@@ -19863,7 +19853,7 @@
         <v>15.59999999999998</v>
       </c>
       <c r="K385" t="n">
-        <v>-11.1111111111112</v>
+        <v>0</v>
       </c>
       <c r="L385" t="n">
         <v>17.89</v>
@@ -19914,7 +19904,7 @@
         <v>15.59999999999998</v>
       </c>
       <c r="K386" t="n">
-        <v>-25.00000000000022</v>
+        <v>0</v>
       </c>
       <c r="L386" t="n">
         <v>17.89</v>
@@ -19965,7 +19955,7 @@
         <v>15.59999999999998</v>
       </c>
       <c r="K387" t="n">
-        <v>-25.00000000000022</v>
+        <v>0</v>
       </c>
       <c r="L387" t="n">
         <v>17.89</v>
@@ -20016,7 +20006,7 @@
         <v>15.59999999999998</v>
       </c>
       <c r="K388" t="n">
-        <v>-14.28571428571443</v>
+        <v>0</v>
       </c>
       <c r="L388" t="n">
         <v>17.89</v>
@@ -20067,7 +20057,7 @@
         <v>15.59999999999998</v>
       </c>
       <c r="K389" t="n">
-        <v>-33.33333333333373</v>
+        <v>100</v>
       </c>
       <c r="L389" t="n">
         <v>17.89</v>
@@ -20117,9 +20107,7 @@
       <c r="J390" t="n">
         <v>15.59999999999998</v>
       </c>
-      <c r="K390" t="n">
-        <v>-20.00000000000028</v>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>17.9</v>
       </c>
@@ -20169,7 +20157,7 @@
         <v>15.69999999999998</v>
       </c>
       <c r="K391" t="n">
-        <v>-19.99999999999972</v>
+        <v>-100</v>
       </c>
       <c r="L391" t="n">
         <v>17.89</v>
@@ -20271,7 +20259,7 @@
         <v>15.89999999999998</v>
       </c>
       <c r="K393" t="n">
-        <v>14.28571428571458</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L393" t="n">
         <v>17.9</v>
@@ -20322,7 +20310,7 @@
         <v>15.89999999999998</v>
       </c>
       <c r="K394" t="n">
-        <v>0</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L394" t="n">
         <v>17.91</v>
@@ -20373,7 +20361,7 @@
         <v>15.89999999999998</v>
       </c>
       <c r="K395" t="n">
-        <v>20.00000000000057</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L395" t="n">
         <v>17.92</v>
@@ -20628,7 +20616,7 @@
         <v>15.99999999999998</v>
       </c>
       <c r="K400" t="n">
-        <v>19.99999999999972</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L400" t="n">
         <v>17.92</v>
@@ -20679,7 +20667,7 @@
         <v>16.09999999999998</v>
       </c>
       <c r="K401" t="n">
-        <v>20.00000000000028</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L401" t="n">
         <v>17.94</v>
@@ -20730,7 +20718,7 @@
         <v>16.19999999999998</v>
       </c>
       <c r="K402" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L402" t="n">
         <v>17.94</v>
@@ -20781,7 +20769,7 @@
         <v>16.29999999999998</v>
       </c>
       <c r="K403" t="n">
-        <v>-14.285714285714</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L403" t="n">
         <v>17.92</v>
@@ -20832,7 +20820,7 @@
         <v>16.49999999999998</v>
       </c>
       <c r="K404" t="n">
-        <v>11.11111111111129</v>
+        <v>0</v>
       </c>
       <c r="L404" t="n">
         <v>17.92</v>
@@ -20934,7 +20922,7 @@
         <v>16.69999999999998</v>
       </c>
       <c r="K406" t="n">
-        <v>9.090909090909207</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L406" t="n">
         <v>17.92</v>
@@ -20985,7 +20973,7 @@
         <v>16.69999999999998</v>
       </c>
       <c r="K407" t="n">
-        <v>9.090909090909207</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L407" t="n">
         <v>17.93</v>
@@ -21087,7 +21075,7 @@
         <v>16.89999999999998</v>
       </c>
       <c r="K409" t="n">
-        <v>7.692307692307776</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L409" t="n">
         <v>17.94</v>
@@ -21138,7 +21126,7 @@
         <v>16.89999999999998</v>
       </c>
       <c r="K410" t="n">
-        <v>7.692307692307776</v>
+        <v>0</v>
       </c>
       <c r="L410" t="n">
         <v>17.95</v>
@@ -21189,7 +21177,7 @@
         <v>16.99999999999999</v>
       </c>
       <c r="K411" t="n">
-        <v>7.692307692307482</v>
+        <v>0</v>
       </c>
       <c r="L411" t="n">
         <v>17.94</v>
@@ -21240,7 +21228,7 @@
         <v>16.99999999999999</v>
       </c>
       <c r="K412" t="n">
-        <v>0</v>
+        <v>14.28571428571385</v>
       </c>
       <c r="L412" t="n">
         <v>17.94</v>
@@ -21291,7 +21279,7 @@
         <v>16.99999999999999</v>
       </c>
       <c r="K413" t="n">
-        <v>-9.09090909090915</v>
+        <v>-20</v>
       </c>
       <c r="L413" t="n">
         <v>17.95</v>
@@ -21342,7 +21330,7 @@
         <v>16.99999999999999</v>
       </c>
       <c r="K414" t="n">
-        <v>-9.09090909090915</v>
+        <v>0</v>
       </c>
       <c r="L414" t="n">
         <v>17.94</v>
@@ -21444,7 +21432,7 @@
         <v>17.09999999999999</v>
       </c>
       <c r="K416" t="n">
-        <v>9.09090909090915</v>
+        <v>0</v>
       </c>
       <c r="L416" t="n">
         <v>17.95</v>
@@ -21495,7 +21483,7 @@
         <v>17.09999999999999</v>
       </c>
       <c r="K417" t="n">
-        <v>9.09090909090915</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L417" t="n">
         <v>17.95</v>
@@ -21546,7 +21534,7 @@
         <v>17.09999999999999</v>
       </c>
       <c r="K418" t="n">
-        <v>9.09090909090915</v>
+        <v>0</v>
       </c>
       <c r="L418" t="n">
         <v>17.96</v>
@@ -21597,7 +21585,7 @@
         <v>17.09999999999999</v>
       </c>
       <c r="K419" t="n">
-        <v>9.09090909090915</v>
+        <v>0</v>
       </c>
       <c r="L419" t="n">
         <v>17.96</v>
@@ -21648,7 +21636,7 @@
         <v>17.09999999999999</v>
       </c>
       <c r="K420" t="n">
-        <v>9.09090909090915</v>
+        <v>100</v>
       </c>
       <c r="L420" t="n">
         <v>17.96</v>
@@ -21699,7 +21687,7 @@
         <v>17.19999999999999</v>
       </c>
       <c r="K421" t="n">
-        <v>-9.09090909090915</v>
+        <v>0</v>
       </c>
       <c r="L421" t="n">
         <v>17.96</v>
@@ -21750,7 +21738,7 @@
         <v>17.29999999999999</v>
       </c>
       <c r="K422" t="n">
-        <v>9.09090909090915</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L422" t="n">
         <v>17.97</v>
@@ -21801,7 +21789,7 @@
         <v>17.29999999999999</v>
       </c>
       <c r="K423" t="n">
-        <v>19.99999999999972</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L423" t="n">
         <v>17.98</v>
@@ -21903,7 +21891,7 @@
         <v>17.29999999999999</v>
       </c>
       <c r="K425" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L425" t="n">
         <v>17.99</v>
@@ -22056,7 +22044,7 @@
         <v>17.29999999999999</v>
       </c>
       <c r="K428" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L428" t="n">
         <v>17.99</v>
@@ -22107,7 +22095,7 @@
         <v>17.39999999999999</v>
       </c>
       <c r="K429" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L429" t="n">
         <v>17.98</v>
@@ -22158,7 +22146,7 @@
         <v>17.49999999999999</v>
       </c>
       <c r="K430" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L430" t="n">
         <v>17.98</v>
@@ -22209,7 +22197,7 @@
         <v>17.49999999999999</v>
       </c>
       <c r="K431" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L431" t="n">
         <v>17.99</v>
@@ -22260,7 +22248,7 @@
         <v>17.49999999999999</v>
       </c>
       <c r="K432" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L432" t="n">
         <v>17.99</v>
@@ -22311,7 +22299,7 @@
         <v>17.59999999999999</v>
       </c>
       <c r="K433" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L433" t="n">
         <v>17.98</v>
@@ -22362,7 +22350,7 @@
         <v>17.7</v>
       </c>
       <c r="K434" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L434" t="n">
         <v>17.98</v>
@@ -22566,7 +22554,7 @@
         <v>17.7</v>
       </c>
       <c r="K438" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L438" t="n">
         <v>17.98</v>
@@ -22668,7 +22656,7 @@
         <v>17.8</v>
       </c>
       <c r="K440" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L440" t="n">
         <v>17.98</v>
@@ -22719,7 +22707,7 @@
         <v>17.8</v>
       </c>
       <c r="K441" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L441" t="n">
         <v>17.97</v>
@@ -22770,7 +22758,7 @@
         <v>17.8</v>
       </c>
       <c r="K442" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L442" t="n">
         <v>17.96</v>
@@ -22821,7 +22809,7 @@
         <v>17.8</v>
       </c>
       <c r="K443" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L443" t="n">
         <v>17.96</v>
@@ -22872,7 +22860,7 @@
         <v>17.8</v>
       </c>
       <c r="K444" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L444" t="n">
         <v>17.95</v>
@@ -22923,7 +22911,7 @@
         <v>17.8</v>
       </c>
       <c r="K445" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L445" t="n">
         <v>17.94</v>
@@ -22974,7 +22962,7 @@
         <v>17.8</v>
       </c>
       <c r="K446" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L446" t="n">
         <v>17.93</v>
@@ -23025,7 +23013,7 @@
         <v>17.8</v>
       </c>
       <c r="K447" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L447" t="n">
         <v>17.92</v>
@@ -23076,7 +23064,7 @@
         <v>17.8</v>
       </c>
       <c r="K448" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L448" t="n">
         <v>17.91</v>
@@ -23126,9 +23114,7 @@
       <c r="J449" t="n">
         <v>17.8</v>
       </c>
-      <c r="K449" t="n">
-        <v>0</v>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>17.9</v>
       </c>
@@ -23178,7 +23164,7 @@
         <v>17.9</v>
       </c>
       <c r="K450" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L450" t="n">
         <v>17.91</v>
@@ -23229,7 +23215,7 @@
         <v>18</v>
       </c>
       <c r="K451" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L451" t="n">
         <v>17.91</v>
@@ -23280,7 +23266,7 @@
         <v>18.1</v>
       </c>
       <c r="K452" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L452" t="n">
         <v>17.92</v>
@@ -23331,7 +23317,7 @@
         <v>18.1</v>
       </c>
       <c r="K453" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L453" t="n">
         <v>17.93</v>
@@ -23382,7 +23368,7 @@
         <v>18.1</v>
       </c>
       <c r="K454" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L454" t="n">
         <v>17.94</v>
@@ -23433,7 +23419,7 @@
         <v>18.1</v>
       </c>
       <c r="K455" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L455" t="n">
         <v>17.95</v>
@@ -23484,7 +23470,7 @@
         <v>18.1</v>
       </c>
       <c r="K456" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L456" t="n">
         <v>17.96</v>
@@ -23535,7 +23521,7 @@
         <v>18.2</v>
       </c>
       <c r="K457" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L457" t="n">
         <v>17.96</v>
@@ -23586,7 +23572,7 @@
         <v>18.3</v>
       </c>
       <c r="K458" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L458" t="n">
         <v>17.97</v>
@@ -23688,7 +23674,7 @@
         <v>18.3</v>
       </c>
       <c r="K460" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L460" t="n">
         <v>17.98</v>
@@ -23739,7 +23725,7 @@
         <v>18.3</v>
       </c>
       <c r="K461" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L461" t="n">
         <v>17.99</v>
@@ -23790,7 +23776,7 @@
         <v>18.40000000000001</v>
       </c>
       <c r="K462" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L462" t="n">
         <v>17.98</v>
@@ -23841,7 +23827,7 @@
         <v>18.40000000000001</v>
       </c>
       <c r="K463" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L463" t="n">
         <v>17.97</v>
@@ -23892,7 +23878,7 @@
         <v>18.50000000000001</v>
       </c>
       <c r="K464" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L464" t="n">
         <v>17.97</v>
@@ -23943,7 +23929,7 @@
         <v>18.60000000000001</v>
       </c>
       <c r="K465" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L465" t="n">
         <v>17.96</v>
@@ -24045,7 +24031,7 @@
         <v>18.60000000000001</v>
       </c>
       <c r="K467" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L467" t="n">
         <v>17.95</v>
@@ -24096,7 +24082,7 @@
         <v>18.60000000000001</v>
       </c>
       <c r="K468" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L468" t="n">
         <v>17.94</v>
@@ -24147,7 +24133,7 @@
         <v>18.60000000000001</v>
       </c>
       <c r="K469" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L469" t="n">
         <v>17.93</v>
@@ -24198,7 +24184,7 @@
         <v>18.60000000000001</v>
       </c>
       <c r="K470" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L470" t="n">
         <v>17.92</v>
@@ -24300,7 +24286,7 @@
         <v>18.60000000000001</v>
       </c>
       <c r="K472" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L472" t="n">
         <v>17.91</v>
@@ -24351,7 +24337,7 @@
         <v>18.60000000000001</v>
       </c>
       <c r="K473" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L473" t="n">
         <v>17.91</v>
@@ -24401,9 +24387,7 @@
       <c r="J474" t="n">
         <v>18.60000000000001</v>
       </c>
-      <c r="K474" t="n">
-        <v>-20</v>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>17.9</v>
       </c>
@@ -24452,9 +24436,7 @@
       <c r="J475" t="n">
         <v>18.60000000000001</v>
       </c>
-      <c r="K475" t="n">
-        <v>-20</v>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>17.9</v>
       </c>
@@ -24504,7 +24486,7 @@
         <v>18.70000000000001</v>
       </c>
       <c r="K476" t="n">
-        <v>-33.33333333333294</v>
+        <v>-100</v>
       </c>
       <c r="L476" t="n">
         <v>17.89</v>
@@ -24606,7 +24588,7 @@
         <v>18.8</v>
       </c>
       <c r="K478" t="n">
-        <v>-20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L478" t="n">
         <v>17.89</v>
@@ -24657,7 +24639,7 @@
         <v>18.90000000000001</v>
       </c>
       <c r="K479" t="n">
-        <v>0</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L479" t="n">
         <v>17.9</v>
@@ -24708,7 +24690,7 @@
         <v>18.90000000000001</v>
       </c>
       <c r="K480" t="n">
-        <v>0</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L480" t="n">
         <v>17.91</v>
@@ -24759,7 +24741,7 @@
         <v>18.90000000000001</v>
       </c>
       <c r="K481" t="n">
-        <v>0</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L481" t="n">
         <v>17.92</v>
@@ -24810,7 +24792,7 @@
         <v>19.00000000000001</v>
       </c>
       <c r="K482" t="n">
-        <v>33.33333333333373</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L482" t="n">
         <v>17.94</v>
@@ -24861,7 +24843,7 @@
         <v>19.00000000000001</v>
       </c>
       <c r="K483" t="n">
-        <v>33.33333333333373</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L483" t="n">
         <v>17.96</v>
@@ -24912,7 +24894,7 @@
         <v>19.00000000000001</v>
       </c>
       <c r="K484" t="n">
-        <v>20.00000000000028</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L484" t="n">
         <v>17.98</v>
@@ -24963,7 +24945,7 @@
         <v>19.00000000000001</v>
       </c>
       <c r="K485" t="n">
-        <v>50.00000000000089</v>
+        <v>100</v>
       </c>
       <c r="L485" t="n">
         <v>18</v>
@@ -25014,7 +24996,7 @@
         <v>19.10000000000001</v>
       </c>
       <c r="K486" t="n">
-        <v>20.00000000000028</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L486" t="n">
         <v>18.02</v>
@@ -25065,7 +25047,7 @@
         <v>19.10000000000001</v>
       </c>
       <c r="K487" t="n">
-        <v>20.00000000000028</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L487" t="n">
         <v>18.02999999999999</v>
@@ -25116,7 +25098,7 @@
         <v>19.10000000000001</v>
       </c>
       <c r="K488" t="n">
-        <v>20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L488" t="n">
         <v>18.04</v>
@@ -25167,7 +25149,7 @@
         <v>19.20000000000001</v>
       </c>
       <c r="K489" t="n">
-        <v>33.33333333333373</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L489" t="n">
         <v>18.04999999999999</v>
@@ -25218,7 +25200,7 @@
         <v>19.20000000000001</v>
       </c>
       <c r="K490" t="n">
-        <v>33.33333333333373</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L490" t="n">
         <v>18.06</v>
@@ -25269,7 +25251,7 @@
         <v>19.20000000000001</v>
       </c>
       <c r="K491" t="n">
-        <v>33.33333333333373</v>
+        <v>0</v>
       </c>
       <c r="L491" t="n">
         <v>18.06999999999999</v>
@@ -25320,7 +25302,7 @@
         <v>19.20000000000001</v>
       </c>
       <c r="K492" t="n">
-        <v>33.33333333333373</v>
+        <v>0</v>
       </c>
       <c r="L492" t="n">
         <v>18.06999999999999</v>
@@ -25371,7 +25353,7 @@
         <v>19.30000000000001</v>
       </c>
       <c r="K493" t="n">
-        <v>14.28571428571443</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L493" t="n">
         <v>18.06</v>
@@ -25422,7 +25404,7 @@
         <v>19.30000000000001</v>
       </c>
       <c r="K494" t="n">
-        <v>14.28571428571443</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L494" t="n">
         <v>18.04999999999999</v>
@@ -25473,7 +25455,7 @@
         <v>19.30000000000001</v>
       </c>
       <c r="K495" t="n">
-        <v>14.28571428571443</v>
+        <v>0</v>
       </c>
       <c r="L495" t="n">
         <v>18.04</v>
@@ -25524,7 +25506,7 @@
         <v>19.40000000000001</v>
       </c>
       <c r="K496" t="n">
-        <v>42.85714285714256</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L496" t="n">
         <v>18.04999999999999</v>
@@ -25626,7 +25608,7 @@
         <v>19.50000000000001</v>
       </c>
       <c r="K498" t="n">
-        <v>14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L498" t="n">
         <v>18.06</v>
@@ -25677,7 +25659,7 @@
         <v>19.50000000000001</v>
       </c>
       <c r="K499" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L499" t="n">
         <v>18.04999999999999</v>
@@ -25728,7 +25710,7 @@
         <v>19.50000000000001</v>
       </c>
       <c r="K500" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L500" t="n">
         <v>18.04</v>
@@ -25779,7 +25761,7 @@
         <v>19.50000000000001</v>
       </c>
       <c r="K501" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L501" t="n">
         <v>18.02999999999999</v>
@@ -25830,7 +25812,7 @@
         <v>19.50000000000001</v>
       </c>
       <c r="K502" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L502" t="n">
         <v>18.02</v>
@@ -25881,7 +25863,7 @@
         <v>19.50000000000001</v>
       </c>
       <c r="K503" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L503" t="n">
         <v>18.02</v>
@@ -25932,7 +25914,7 @@
         <v>19.50000000000001</v>
       </c>
       <c r="K504" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L504" t="n">
         <v>18.02</v>
@@ -25983,7 +25965,7 @@
         <v>19.50000000000001</v>
       </c>
       <c r="K505" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L505" t="n">
         <v>18.02</v>
@@ -26034,7 +26016,7 @@
         <v>19.60000000000002</v>
       </c>
       <c r="K506" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L506" t="n">
         <v>18.02</v>
@@ -26187,7 +26169,7 @@
         <v>19.70000000000002</v>
       </c>
       <c r="K509" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L509" t="n">
         <v>18.01</v>
@@ -26391,7 +26373,7 @@
         <v>19.80000000000002</v>
       </c>
       <c r="K513" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L513" t="n">
         <v>17.97</v>
@@ -26442,7 +26424,7 @@
         <v>19.80000000000002</v>
       </c>
       <c r="K514" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L514" t="n">
         <v>17.96</v>
@@ -26493,7 +26475,7 @@
         <v>19.90000000000002</v>
       </c>
       <c r="K515" t="n">
-        <v>-33.33333333333294</v>
+        <v>-100</v>
       </c>
       <c r="L515" t="n">
         <v>17.94</v>
@@ -26544,7 +26526,7 @@
         <v>19.90000000000002</v>
       </c>
       <c r="K516" t="n">
-        <v>-59.99999999999972</v>
+        <v>-100</v>
       </c>
       <c r="L516" t="n">
         <v>17.91</v>
@@ -26595,7 +26577,7 @@
         <v>19.90000000000002</v>
       </c>
       <c r="K517" t="n">
-        <v>-59.99999999999972</v>
+        <v>-100</v>
       </c>
       <c r="L517" t="n">
         <v>17.89</v>

--- a/BackTest/2019-10-25 BackTest TRX.xlsx
+++ b/BackTest/2019-10-25 BackTest TRX.xlsx
@@ -451,4034 +451,3606 @@
         <v>16.89833333333335</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="E3" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9764.3673</v>
+      </c>
+      <c r="G3" t="n">
+        <v>16.90000000000002</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="E4" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>88.541</v>
+      </c>
+      <c r="G4" t="n">
+        <v>16.90166666666669</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>17</v>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17</v>
+      </c>
+      <c r="E5" t="n">
+        <v>17</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" t="n">
+        <v>16.90500000000002</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>17</v>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17</v>
+      </c>
+      <c r="E6" t="n">
+        <v>17</v>
+      </c>
+      <c r="F6" t="n">
+        <v>145892.2778</v>
+      </c>
+      <c r="G6" t="n">
+        <v>16.90666666666668</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>17</v>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>17</v>
+      </c>
+      <c r="E7" t="n">
+        <v>17</v>
+      </c>
+      <c r="F7" t="n">
+        <v>138097.5304</v>
+      </c>
+      <c r="G7" t="n">
+        <v>16.91166666666668</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n">
+        <v>17</v>
+      </c>
+      <c r="E8" t="n">
+        <v>17</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15574.015</v>
+      </c>
+      <c r="G8" t="n">
+        <v>16.91666666666668</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>17</v>
+      </c>
+      <c r="K8" t="n">
+        <v>17</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>17</v>
+      </c>
+      <c r="C9" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" t="n">
+        <v>17</v>
+      </c>
+      <c r="E9" t="n">
+        <v>17</v>
+      </c>
+      <c r="F9" t="n">
+        <v>105912.3529</v>
+      </c>
+      <c r="G9" t="n">
+        <v>16.92000000000002</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>17</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>17</v>
+      </c>
+      <c r="C10" t="n">
+        <v>17</v>
+      </c>
+      <c r="D10" t="n">
+        <v>17</v>
+      </c>
+      <c r="E10" t="n">
+        <v>17</v>
+      </c>
+      <c r="F10" t="n">
+        <v>79732</v>
+      </c>
+      <c r="G10" t="n">
+        <v>16.92333333333335</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>17</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>17</v>
+      </c>
+      <c r="C11" t="n">
+        <v>17</v>
+      </c>
+      <c r="D11" t="n">
+        <v>17</v>
+      </c>
+      <c r="E11" t="n">
+        <v>17</v>
+      </c>
+      <c r="F11" t="n">
+        <v>386330.7136</v>
+      </c>
+      <c r="G11" t="n">
+        <v>16.92833333333335</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" t="n">
+        <v>17</v>
+      </c>
+      <c r="D12" t="n">
+        <v>17</v>
+      </c>
+      <c r="E12" t="n">
+        <v>17</v>
+      </c>
+      <c r="F12" t="n">
+        <v>35047.3001</v>
+      </c>
+      <c r="G12" t="n">
+        <v>16.93166666666668</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>17</v>
+      </c>
+      <c r="C13" t="n">
+        <v>17</v>
+      </c>
+      <c r="D13" t="n">
+        <v>17</v>
+      </c>
+      <c r="E13" t="n">
+        <v>17</v>
+      </c>
+      <c r="F13" t="n">
+        <v>31348.4115</v>
+      </c>
+      <c r="G13" t="n">
+        <v>16.93500000000002</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" t="n">
+        <v>17</v>
+      </c>
+      <c r="D14" t="n">
+        <v>17</v>
+      </c>
+      <c r="E14" t="n">
+        <v>17</v>
+      </c>
+      <c r="F14" t="n">
+        <v>265586.8985</v>
+      </c>
+      <c r="G14" t="n">
+        <v>16.94000000000002</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>17</v>
+      </c>
+      <c r="C15" t="n">
+        <v>17</v>
+      </c>
+      <c r="D15" t="n">
+        <v>17</v>
+      </c>
+      <c r="E15" t="n">
+        <v>17</v>
+      </c>
+      <c r="F15" t="n">
+        <v>166538.5338</v>
+      </c>
+      <c r="G15" t="n">
+        <v>16.94333333333335</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+      <c r="C16" t="n">
+        <v>17</v>
+      </c>
+      <c r="D16" t="n">
+        <v>17</v>
+      </c>
+      <c r="E16" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1087225.31631177</v>
+      </c>
+      <c r="G16" t="n">
+        <v>16.94666666666668</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" t="n">
+        <v>17</v>
+      </c>
+      <c r="D17" t="n">
+        <v>17</v>
+      </c>
+      <c r="E17" t="n">
+        <v>17</v>
+      </c>
+      <c r="F17" t="n">
+        <v>12000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>16.95000000000002</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>52872.1052</v>
+      </c>
+      <c r="G18" t="n">
+        <v>16.95500000000002</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>637043.7733999999</v>
+      </c>
+      <c r="G19" t="n">
+        <v>16.96000000000002</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1381125.3401</v>
+      </c>
+      <c r="G20" t="n">
+        <v>16.96333333333335</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>215805.5548</v>
+      </c>
+      <c r="G21" t="n">
+        <v>16.96833333333335</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>99238.9035</v>
+      </c>
+      <c r="G22" t="n">
+        <v>16.97166666666668</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>11095.4076</v>
+      </c>
+      <c r="G23" t="n">
+        <v>16.97500000000002</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>149952.0327</v>
+      </c>
+      <c r="G24" t="n">
+        <v>16.97833333333335</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="E25" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1024156.2291</v>
+      </c>
+      <c r="G25" t="n">
+        <v>16.98333333333335</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>43252.7732</v>
+      </c>
+      <c r="G26" t="n">
+        <v>16.98666666666669</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>143298</v>
+      </c>
+      <c r="G27" t="n">
+        <v>16.99000000000002</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="C28" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>6400</v>
+      </c>
+      <c r="G28" t="n">
+        <v>16.99333333333335</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="C29" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1456.8023</v>
+      </c>
+      <c r="G29" t="n">
+        <v>16.99666666666668</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="C30" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="D30" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1393.9534</v>
+      </c>
+      <c r="G30" t="n">
+        <v>17.00000000000002</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="C31" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="E31" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="F31" t="n">
+        <v>373136.5697</v>
+      </c>
+      <c r="G31" t="n">
+        <v>17.00500000000002</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="C32" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="D32" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="E32" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="F32" t="n">
+        <v>50</v>
+      </c>
+      <c r="G32" t="n">
+        <v>17.01000000000002</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="C33" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="D33" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="E33" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="F33" t="n">
+        <v>177345.5813</v>
+      </c>
+      <c r="G33" t="n">
+        <v>17.01500000000002</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="C34" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="E34" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="F34" t="n">
+        <v>10</v>
+      </c>
+      <c r="G34" t="n">
+        <v>17.01833333333335</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C35" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>10814.1618</v>
+      </c>
+      <c r="G35" t="n">
+        <v>17.02500000000002</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="C36" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="E36" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>159590.7688</v>
+      </c>
+      <c r="G36" t="n">
+        <v>17.02833333333335</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C37" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D37" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E37" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F37" t="n">
+        <v>343.00578034</v>
+      </c>
+      <c r="G37" t="n">
+        <v>17.03333333333335</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C38" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D38" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E38" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F38" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G38" t="n">
+        <v>17.03833333333335</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C39" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D39" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E39" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F39" t="n">
+        <v>30</v>
+      </c>
+      <c r="G39" t="n">
+        <v>17.04333333333335</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C40" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D40" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E40" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F40" t="n">
+        <v>629171.54</v>
+      </c>
+      <c r="G40" t="n">
+        <v>17.04833333333335</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C41" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D41" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E41" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F41" t="n">
+        <v>155522.5885</v>
+      </c>
+      <c r="G41" t="n">
+        <v>17.05333333333335</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C42" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D42" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E42" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F42" t="n">
+        <v>133947.0996</v>
+      </c>
+      <c r="G42" t="n">
+        <v>17.06000000000001</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C43" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D43" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E43" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F43" t="n">
+        <v>72500</v>
+      </c>
+      <c r="G43" t="n">
+        <v>17.06500000000001</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C44" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D44" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E44" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F44" t="n">
+        <v>175660.6358</v>
+      </c>
+      <c r="G44" t="n">
+        <v>17.07000000000001</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="C45" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="E45" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="F45" t="n">
+        <v>105552.4472</v>
+      </c>
+      <c r="G45" t="n">
+        <v>17.07333333333334</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C46" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D46" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E46" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F46" t="n">
+        <v>815.8339</v>
+      </c>
+      <c r="G46" t="n">
+        <v>17.07833333333334</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C47" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D47" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E47" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F47" t="n">
+        <v>23169.3063</v>
+      </c>
+      <c r="G47" t="n">
+        <v>17.08500000000001</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="C48" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D48" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E48" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>512559.0319</v>
+      </c>
+      <c r="G48" t="n">
+        <v>17.09000000000001</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C49" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D49" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E49" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F49" t="n">
+        <v>273637.9643</v>
+      </c>
+      <c r="G49" t="n">
+        <v>17.09666666666667</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="C50" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D50" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="E50" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F50" t="n">
+        <v>93460.28779654999</v>
+      </c>
+      <c r="G50" t="n">
+        <v>17.10333333333334</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C51" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D51" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="E51" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F51" t="n">
+        <v>77450.37401149</v>
+      </c>
+      <c r="G51" t="n">
+        <v>17.10833333333334</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C52" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="D52" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="E52" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F52" t="n">
+        <v>162385.08319195</v>
+      </c>
+      <c r="G52" t="n">
+        <v>17.11500000000001</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="C53" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="D53" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="E53" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="F53" t="n">
+        <v>97636.8654</v>
+      </c>
+      <c r="G53" t="n">
+        <v>17.11833333333334</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C54" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D54" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E54" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F54" t="n">
+        <v>14480.867</v>
+      </c>
+      <c r="G54" t="n">
+        <v>17.12333333333334</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C55" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D55" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E55" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F55" t="n">
+        <v>14450.867</v>
+      </c>
+      <c r="G55" t="n">
+        <v>17.13</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C56" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="D56" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E56" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="F56" t="n">
+        <v>220273.0844</v>
+      </c>
+      <c r="G56" t="n">
+        <v>17.135</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C57" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D57" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E57" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F57" t="n">
+        <v>38445.694</v>
+      </c>
+      <c r="G57" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C58" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D58" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E58" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F58" t="n">
+        <v>100247.777</v>
+      </c>
+      <c r="G58" t="n">
+        <v>17.14666666666666</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C59" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D59" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E59" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F59" t="n">
+        <v>47791.4</v>
+      </c>
+      <c r="G59" t="n">
+        <v>17.15333333333333</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C60" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D60" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E60" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F60" t="n">
+        <v>193300.5585</v>
+      </c>
+      <c r="G60" t="n">
+        <v>17.15999999999999</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C61" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="D61" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="E61" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F61" t="n">
+        <v>326950.1149</v>
+      </c>
+      <c r="G61" t="n">
+        <v>17.16833333333333</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C62" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D62" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E62" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F62" t="n">
+        <v>33566.6035</v>
+      </c>
+      <c r="G62" t="n">
+        <v>17.17499999999999</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C63" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D63" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E63" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F63" t="n">
+        <v>335662.6832</v>
+      </c>
+      <c r="G63" t="n">
+        <v>17.18166666666666</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C64" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D64" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E64" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F64" t="n">
+        <v>276.2471</v>
+      </c>
+      <c r="G64" t="n">
+        <v>17.18833333333332</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="C65" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D65" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="E65" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F65" t="n">
+        <v>148597.6091</v>
+      </c>
+      <c r="G65" t="n">
+        <v>17.19333333333332</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C66" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D66" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E66" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F66" t="n">
+        <v>90874</v>
+      </c>
+      <c r="G66" t="n">
+        <v>17.19833333333332</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C67" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D67" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E67" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F67" t="n">
+        <v>18821.9936</v>
+      </c>
+      <c r="G67" t="n">
+        <v>17.20333333333332</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C68" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D68" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E68" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F68" t="n">
+        <v>21857.9793</v>
+      </c>
+      <c r="G68" t="n">
+        <v>17.20833333333332</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C69" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D69" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E69" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F69" t="n">
+        <v>65573.9379</v>
+      </c>
+      <c r="G69" t="n">
+        <v>17.21333333333332</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="C70" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="D70" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="E70" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="F70" t="n">
+        <v>150</v>
+      </c>
+      <c r="G70" t="n">
+        <v>17.21666666666665</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="C71" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="D71" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="E71" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="F71" t="n">
+        <v>10</v>
+      </c>
+      <c r="G71" t="n">
+        <v>17.22333333333332</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C72" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D72" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E72" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F72" t="n">
+        <v>16340.1294</v>
+      </c>
+      <c r="G72" t="n">
+        <v>17.22833333333332</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="C73" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="D73" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="E73" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="F73" t="n">
+        <v>10</v>
+      </c>
+      <c r="G73" t="n">
+        <v>17.23499999999999</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="C74" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="D74" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="E74" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="F74" t="n">
+        <v>4998.4482</v>
+      </c>
+      <c r="G74" t="n">
+        <v>17.24166666666666</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="C75" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="D75" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="E75" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="F75" t="n">
+        <v>32386.2566</v>
+      </c>
+      <c r="G75" t="n">
+        <v>17.24833333333332</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="C76" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="D76" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="E76" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="F76" t="n">
+        <v>38928.2387</v>
+      </c>
+      <c r="G76" t="n">
+        <v>17.25499999999999</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="C77" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="D77" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="E77" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="F77" t="n">
+        <v>8879</v>
+      </c>
+      <c r="G77" t="n">
+        <v>17.26166666666666</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="C78" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="D78" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="E78" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="F78" t="n">
+        <v>85389.3636</v>
+      </c>
+      <c r="G78" t="n">
+        <v>17.26666666666666</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C79" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D79" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E79" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F79" t="n">
+        <v>17000.3188</v>
+      </c>
+      <c r="G79" t="n">
+        <v>17.27</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="C80" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="D80" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="E80" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="F80" t="n">
+        <v>10</v>
+      </c>
+      <c r="G80" t="n">
+        <v>17.275</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="C81" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="D81" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="E81" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="F81" t="n">
+        <v>6055.7091</v>
+      </c>
+      <c r="G81" t="n">
+        <v>17.28</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C82" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D82" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E82" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F82" t="n">
+        <v>194507.382</v>
+      </c>
+      <c r="G82" t="n">
+        <v>17.28333333333334</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="C83" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D83" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E83" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="F83" t="n">
+        <v>10225</v>
+      </c>
+      <c r="G83" t="n">
+        <v>17.28666666666667</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="C84" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D84" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E84" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="F84" t="n">
+        <v>138082.099</v>
+      </c>
+      <c r="G84" t="n">
+        <v>17.29000000000001</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="C85" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="D85" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="E85" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="F85" t="n">
+        <v>12356.4375</v>
+      </c>
+      <c r="G85" t="n">
+        <v>17.29000000000001</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C86" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D86" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E86" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="F86" t="n">
+        <v>188371.2674</v>
+      </c>
+      <c r="G86" t="n">
+        <v>17.29333333333334</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C87" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D87" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E87" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F87" t="n">
+        <v>38020.1782</v>
+      </c>
+      <c r="G87" t="n">
+        <v>17.29666666666667</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="C88" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="D88" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="E88" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="F88" t="n">
+        <v>73.19759999999999</v>
+      </c>
+      <c r="G88" t="n">
+        <v>17.29666666666667</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C89" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D89" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E89" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F89" t="n">
+        <v>10</v>
+      </c>
+      <c r="G89" t="n">
+        <v>17.29833333333334</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="C90" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="D90" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="E90" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="F90" t="n">
+        <v>124.8125</v>
+      </c>
+      <c r="G90" t="n">
+        <v>17.29833333333334</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C91" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D91" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E91" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1351.0805</v>
+      </c>
+      <c r="G91" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C92" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D92" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E92" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F92" t="n">
+        <v>96000.7</v>
+      </c>
+      <c r="G92" t="n">
+        <v>17.30166666666667</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C93" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D93" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E93" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F93" t="n">
+        <v>639024.5664</v>
+      </c>
+      <c r="G93" t="n">
+        <v>17.30333333333333</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C94" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D94" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E94" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="F94" t="n">
+        <v>119810.95373988</v>
+      </c>
+      <c r="G94" t="n">
+        <v>17.305</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C95" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D95" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E95" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F95" t="n">
+        <v>16688.3236</v>
+      </c>
+      <c r="G95" t="n">
+        <v>17.305</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C96" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D96" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E96" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F96" t="n">
+        <v>119.8295</v>
+      </c>
+      <c r="G96" t="n">
+        <v>17.30666666666666</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C97" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D97" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E97" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F97" t="n">
+        <v>10</v>
+      </c>
+      <c r="G97" t="n">
+        <v>17.30666666666666</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C98" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D98" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E98" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F98" t="n">
+        <v>13288.4585</v>
+      </c>
+      <c r="G98" t="n">
+        <v>17.30666666666666</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C99" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D99" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E99" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F99" t="n">
+        <v>557496.5923</v>
+      </c>
+      <c r="G99" t="n">
+        <v>17.30666666666666</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C100" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D100" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E100" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F100" t="n">
+        <v>386186.6252</v>
+      </c>
+      <c r="G100" t="n">
+        <v>17.30666666666666</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C101" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D101" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E101" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F101" t="n">
+        <v>463482.4627</v>
+      </c>
+      <c r="G101" t="n">
+        <v>17.30666666666666</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C102" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D102" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E102" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F102" t="n">
+        <v>90108.0941</v>
+      </c>
+      <c r="G102" t="n">
+        <v>17.30666666666666</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C103" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D103" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E103" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F103" t="n">
+        <v>202</v>
+      </c>
+      <c r="G103" t="n">
+        <v>17.30666666666666</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C104" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D104" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E104" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="F104" t="n">
+        <v>309495.3166</v>
+      </c>
+      <c r="G104" t="n">
+        <v>17.30666666666666</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="C3" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="E3" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="F3" t="n">
-        <v>9764.3673</v>
-      </c>
-      <c r="G3" t="n">
-        <v>16.90000000000002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="C4" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="E4" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="F4" t="n">
-        <v>88.541</v>
-      </c>
-      <c r="G4" t="n">
-        <v>16.90166666666669</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>17</v>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>17</v>
-      </c>
-      <c r="E5" t="n">
-        <v>17</v>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
-      </c>
-      <c r="G5" t="n">
-        <v>16.90500000000002</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>17</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>17</v>
-      </c>
-      <c r="C6" t="n">
-        <v>17</v>
-      </c>
-      <c r="D6" t="n">
-        <v>17</v>
-      </c>
-      <c r="E6" t="n">
-        <v>17</v>
-      </c>
-      <c r="F6" t="n">
-        <v>145892.2778</v>
-      </c>
-      <c r="G6" t="n">
-        <v>16.90666666666668</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>17</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>17</v>
-      </c>
-      <c r="C7" t="n">
-        <v>17</v>
-      </c>
-      <c r="D7" t="n">
-        <v>17</v>
-      </c>
-      <c r="E7" t="n">
-        <v>17</v>
-      </c>
-      <c r="F7" t="n">
-        <v>138097.5304</v>
-      </c>
-      <c r="G7" t="n">
-        <v>16.91166666666668</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>17</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>17</v>
-      </c>
-      <c r="C8" t="n">
-        <v>17</v>
-      </c>
-      <c r="D8" t="n">
-        <v>17</v>
-      </c>
-      <c r="E8" t="n">
-        <v>17</v>
-      </c>
-      <c r="F8" t="n">
-        <v>15574.015</v>
-      </c>
-      <c r="G8" t="n">
-        <v>16.91666666666668</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>17</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>17</v>
-      </c>
-      <c r="C9" t="n">
-        <v>17</v>
-      </c>
-      <c r="D9" t="n">
-        <v>17</v>
-      </c>
-      <c r="E9" t="n">
-        <v>17</v>
-      </c>
-      <c r="F9" t="n">
-        <v>105912.3529</v>
-      </c>
-      <c r="G9" t="n">
-        <v>16.92000000000002</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>17</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>17</v>
-      </c>
-      <c r="C10" t="n">
-        <v>17</v>
-      </c>
-      <c r="D10" t="n">
-        <v>17</v>
-      </c>
-      <c r="E10" t="n">
-        <v>17</v>
-      </c>
-      <c r="F10" t="n">
-        <v>79732</v>
-      </c>
-      <c r="G10" t="n">
-        <v>16.92333333333335</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>17</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>17</v>
-      </c>
-      <c r="C11" t="n">
-        <v>17</v>
-      </c>
-      <c r="D11" t="n">
-        <v>17</v>
-      </c>
-      <c r="E11" t="n">
-        <v>17</v>
-      </c>
-      <c r="F11" t="n">
-        <v>386330.7136</v>
-      </c>
-      <c r="G11" t="n">
-        <v>16.92833333333335</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>17</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>17</v>
-      </c>
-      <c r="C12" t="n">
-        <v>17</v>
-      </c>
-      <c r="D12" t="n">
-        <v>17</v>
-      </c>
-      <c r="E12" t="n">
-        <v>17</v>
-      </c>
-      <c r="F12" t="n">
-        <v>35047.3001</v>
-      </c>
-      <c r="G12" t="n">
-        <v>16.93166666666668</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>17</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>17</v>
-      </c>
-      <c r="C13" t="n">
-        <v>17</v>
-      </c>
-      <c r="D13" t="n">
-        <v>17</v>
-      </c>
-      <c r="E13" t="n">
-        <v>17</v>
-      </c>
-      <c r="F13" t="n">
-        <v>31348.4115</v>
-      </c>
-      <c r="G13" t="n">
-        <v>16.93500000000002</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>17</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>17</v>
-      </c>
-      <c r="C14" t="n">
-        <v>17</v>
-      </c>
-      <c r="D14" t="n">
-        <v>17</v>
-      </c>
-      <c r="E14" t="n">
-        <v>17</v>
-      </c>
-      <c r="F14" t="n">
-        <v>265586.8985</v>
-      </c>
-      <c r="G14" t="n">
-        <v>16.94000000000002</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>17</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>17</v>
-      </c>
-      <c r="C15" t="n">
-        <v>17</v>
-      </c>
-      <c r="D15" t="n">
-        <v>17</v>
-      </c>
-      <c r="E15" t="n">
-        <v>17</v>
-      </c>
-      <c r="F15" t="n">
-        <v>166538.5338</v>
-      </c>
-      <c r="G15" t="n">
-        <v>16.94333333333335</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>17</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>17</v>
-      </c>
-      <c r="C16" t="n">
-        <v>17</v>
-      </c>
-      <c r="D16" t="n">
-        <v>17</v>
-      </c>
-      <c r="E16" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1087225.31631177</v>
-      </c>
-      <c r="G16" t="n">
-        <v>16.94666666666668</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>17</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>17</v>
-      </c>
-      <c r="C17" t="n">
-        <v>17</v>
-      </c>
-      <c r="D17" t="n">
-        <v>17</v>
-      </c>
-      <c r="E17" t="n">
-        <v>17</v>
-      </c>
-      <c r="F17" t="n">
-        <v>12000</v>
-      </c>
-      <c r="G17" t="n">
-        <v>16.95000000000002</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>17</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="D18" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>52872.1052</v>
-      </c>
-      <c r="G18" t="n">
-        <v>16.95500000000002</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>637043.7733999999</v>
-      </c>
-      <c r="G19" t="n">
-        <v>16.96000000000002</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1381125.3401</v>
-      </c>
-      <c r="G20" t="n">
-        <v>16.96333333333335</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>215805.5548</v>
-      </c>
-      <c r="G21" t="n">
-        <v>16.96833333333335</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>99238.9035</v>
-      </c>
-      <c r="G22" t="n">
-        <v>16.97166666666668</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>11095.4076</v>
-      </c>
-      <c r="G23" t="n">
-        <v>16.97500000000002</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="C24" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="D24" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>149952.0327</v>
-      </c>
-      <c r="G24" t="n">
-        <v>16.97833333333335</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="C25" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="D25" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="E25" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1024156.2291</v>
-      </c>
-      <c r="G25" t="n">
-        <v>16.98333333333335</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="C26" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="D26" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>43252.7732</v>
-      </c>
-      <c r="G26" t="n">
-        <v>16.98666666666669</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="C27" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="D27" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="E27" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="F27" t="n">
-        <v>143298</v>
-      </c>
-      <c r="G27" t="n">
-        <v>16.99000000000002</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="C28" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="D28" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="E28" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="F28" t="n">
-        <v>6400</v>
-      </c>
-      <c r="G28" t="n">
-        <v>16.99333333333335</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="C29" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="D29" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="E29" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1456.8023</v>
-      </c>
-      <c r="G29" t="n">
-        <v>16.99666666666668</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="C30" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="D30" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="E30" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1393.9534</v>
-      </c>
-      <c r="G30" t="n">
-        <v>17.00000000000002</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="C31" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="D31" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="E31" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="F31" t="n">
-        <v>373136.5697</v>
-      </c>
-      <c r="G31" t="n">
-        <v>17.00500000000002</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="C32" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="D32" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="E32" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="F32" t="n">
-        <v>50</v>
-      </c>
-      <c r="G32" t="n">
-        <v>17.01000000000002</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="C33" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="D33" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="E33" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="F33" t="n">
-        <v>177345.5813</v>
-      </c>
-      <c r="G33" t="n">
-        <v>17.01500000000002</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="C34" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="D34" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="E34" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="F34" t="n">
-        <v>10</v>
-      </c>
-      <c r="G34" t="n">
-        <v>17.01833333333335</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C35" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D35" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E35" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F35" t="n">
-        <v>10814.1618</v>
-      </c>
-      <c r="G35" t="n">
-        <v>17.02500000000002</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="C36" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="D36" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="E36" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="F36" t="n">
-        <v>159590.7688</v>
-      </c>
-      <c r="G36" t="n">
-        <v>17.02833333333335</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C37" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D37" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E37" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F37" t="n">
-        <v>343.00578034</v>
-      </c>
-      <c r="G37" t="n">
-        <v>17.03333333333335</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C38" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D38" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E38" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F38" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G38" t="n">
-        <v>17.03833333333335</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C39" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D39" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E39" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F39" t="n">
-        <v>30</v>
-      </c>
-      <c r="G39" t="n">
-        <v>17.04333333333335</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C40" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D40" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E40" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F40" t="n">
-        <v>629171.54</v>
-      </c>
-      <c r="G40" t="n">
-        <v>17.04833333333335</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C41" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D41" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E41" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F41" t="n">
-        <v>155522.5885</v>
-      </c>
-      <c r="G41" t="n">
-        <v>17.05333333333335</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C42" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D42" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E42" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F42" t="n">
-        <v>133947.0996</v>
-      </c>
-      <c r="G42" t="n">
-        <v>17.06000000000001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C43" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D43" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E43" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F43" t="n">
-        <v>72500</v>
-      </c>
-      <c r="G43" t="n">
-        <v>17.06500000000001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C44" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D44" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E44" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F44" t="n">
-        <v>175660.6358</v>
-      </c>
-      <c r="G44" t="n">
-        <v>17.07000000000001</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="C45" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="D45" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="E45" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="F45" t="n">
-        <v>105552.4472</v>
-      </c>
-      <c r="G45" t="n">
-        <v>17.07333333333334</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C46" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D46" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E46" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F46" t="n">
-        <v>815.8339</v>
-      </c>
-      <c r="G46" t="n">
-        <v>17.07833333333334</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C47" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D47" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E47" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F47" t="n">
-        <v>23169.3063</v>
-      </c>
-      <c r="G47" t="n">
-        <v>17.08500000000001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="C48" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D48" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E48" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="F48" t="n">
-        <v>512559.0319</v>
-      </c>
-      <c r="G48" t="n">
-        <v>17.09000000000001</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C49" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D49" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E49" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F49" t="n">
-        <v>273637.9643</v>
-      </c>
-      <c r="G49" t="n">
-        <v>17.09666666666667</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="C50" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D50" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="E50" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F50" t="n">
-        <v>93460.28779654999</v>
-      </c>
-      <c r="G50" t="n">
-        <v>17.10333333333334</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C51" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D51" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="E51" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F51" t="n">
-        <v>77450.37401149</v>
-      </c>
-      <c r="G51" t="n">
-        <v>17.10833333333334</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C52" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="D52" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="E52" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F52" t="n">
-        <v>162385.08319195</v>
-      </c>
-      <c r="G52" t="n">
-        <v>17.11500000000001</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="C53" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="D53" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="E53" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="F53" t="n">
-        <v>97636.8654</v>
-      </c>
-      <c r="G53" t="n">
-        <v>17.11833333333334</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C54" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D54" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E54" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F54" t="n">
-        <v>14480.867</v>
-      </c>
-      <c r="G54" t="n">
-        <v>17.12333333333334</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C55" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D55" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E55" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F55" t="n">
-        <v>14450.867</v>
-      </c>
-      <c r="G55" t="n">
-        <v>17.13</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C56" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="D56" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E56" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="F56" t="n">
-        <v>220273.0844</v>
-      </c>
-      <c r="G56" t="n">
-        <v>17.135</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C57" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D57" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E57" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F57" t="n">
-        <v>38445.694</v>
-      </c>
-      <c r="G57" t="n">
-        <v>17.14</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C58" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D58" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E58" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F58" t="n">
-        <v>100247.777</v>
-      </c>
-      <c r="G58" t="n">
-        <v>17.14666666666666</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C59" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D59" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E59" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F59" t="n">
-        <v>47791.4</v>
-      </c>
-      <c r="G59" t="n">
-        <v>17.15333333333333</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C60" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D60" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E60" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F60" t="n">
-        <v>193300.5585</v>
-      </c>
-      <c r="G60" t="n">
-        <v>17.15999999999999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C61" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="D61" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="E61" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F61" t="n">
-        <v>326950.1149</v>
-      </c>
-      <c r="G61" t="n">
-        <v>17.16833333333333</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C62" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D62" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E62" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F62" t="n">
-        <v>33566.6035</v>
-      </c>
-      <c r="G62" t="n">
-        <v>17.17499999999999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C63" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D63" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E63" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F63" t="n">
-        <v>335662.6832</v>
-      </c>
-      <c r="G63" t="n">
-        <v>17.18166666666666</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C64" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D64" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E64" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F64" t="n">
-        <v>276.2471</v>
-      </c>
-      <c r="G64" t="n">
-        <v>17.18833333333332</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="C65" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D65" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="E65" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F65" t="n">
-        <v>148597.6091</v>
-      </c>
-      <c r="G65" t="n">
-        <v>17.19333333333332</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C66" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D66" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E66" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F66" t="n">
-        <v>90874</v>
-      </c>
-      <c r="G66" t="n">
-        <v>17.19833333333332</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C67" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D67" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E67" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F67" t="n">
-        <v>18821.9936</v>
-      </c>
-      <c r="G67" t="n">
-        <v>17.20333333333332</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C68" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D68" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E68" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F68" t="n">
-        <v>21857.9793</v>
-      </c>
-      <c r="G68" t="n">
-        <v>17.20833333333332</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C69" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D69" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E69" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F69" t="n">
-        <v>65573.9379</v>
-      </c>
-      <c r="G69" t="n">
-        <v>17.21333333333332</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="C70" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="D70" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="E70" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="F70" t="n">
-        <v>150</v>
-      </c>
-      <c r="G70" t="n">
-        <v>17.21666666666665</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="C71" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="D71" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="E71" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="F71" t="n">
-        <v>10</v>
-      </c>
-      <c r="G71" t="n">
-        <v>17.22333333333332</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C72" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D72" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E72" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F72" t="n">
-        <v>16340.1294</v>
-      </c>
-      <c r="G72" t="n">
-        <v>17.22833333333332</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="C73" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="D73" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="E73" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="F73" t="n">
-        <v>10</v>
-      </c>
-      <c r="G73" t="n">
-        <v>17.23499999999999</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="C74" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="D74" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="E74" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="F74" t="n">
-        <v>4998.4482</v>
-      </c>
-      <c r="G74" t="n">
-        <v>17.24166666666666</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="C75" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="D75" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="E75" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="F75" t="n">
-        <v>32386.2566</v>
-      </c>
-      <c r="G75" t="n">
-        <v>17.24833333333332</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="C76" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="D76" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="E76" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="F76" t="n">
-        <v>38928.2387</v>
-      </c>
-      <c r="G76" t="n">
-        <v>17.25499999999999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="C77" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="D77" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="E77" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="F77" t="n">
-        <v>8879</v>
-      </c>
-      <c r="G77" t="n">
-        <v>17.26166666666666</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="C78" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="D78" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="E78" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="F78" t="n">
-        <v>85389.3636</v>
-      </c>
-      <c r="G78" t="n">
-        <v>17.26666666666666</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C79" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D79" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E79" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F79" t="n">
-        <v>17000.3188</v>
-      </c>
-      <c r="G79" t="n">
-        <v>17.27</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="C80" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="D80" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="E80" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="F80" t="n">
-        <v>10</v>
-      </c>
-      <c r="G80" t="n">
-        <v>17.275</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="C81" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="D81" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="E81" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="F81" t="n">
-        <v>6055.7091</v>
-      </c>
-      <c r="G81" t="n">
-        <v>17.28</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C82" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D82" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E82" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F82" t="n">
-        <v>194507.382</v>
-      </c>
-      <c r="G82" t="n">
-        <v>17.28333333333334</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="C83" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D83" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E83" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="F83" t="n">
-        <v>10225</v>
-      </c>
-      <c r="G83" t="n">
-        <v>17.28666666666667</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="C84" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D84" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E84" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="F84" t="n">
-        <v>138082.099</v>
-      </c>
-      <c r="G84" t="n">
-        <v>17.29000000000001</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="C85" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="D85" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="E85" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="F85" t="n">
-        <v>12356.4375</v>
-      </c>
-      <c r="G85" t="n">
-        <v>17.29000000000001</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C86" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D86" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E86" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="F86" t="n">
-        <v>188371.2674</v>
-      </c>
-      <c r="G86" t="n">
-        <v>17.29333333333334</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C87" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D87" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E87" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F87" t="n">
-        <v>38020.1782</v>
-      </c>
-      <c r="G87" t="n">
-        <v>17.29666666666667</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="C88" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="D88" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="E88" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="F88" t="n">
-        <v>73.19759999999999</v>
-      </c>
-      <c r="G88" t="n">
-        <v>17.29666666666667</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C89" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D89" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E89" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F89" t="n">
-        <v>10</v>
-      </c>
-      <c r="G89" t="n">
-        <v>17.29833333333334</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="C90" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="D90" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="E90" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="F90" t="n">
-        <v>124.8125</v>
-      </c>
-      <c r="G90" t="n">
-        <v>17.29833333333334</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C91" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D91" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E91" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F91" t="n">
-        <v>1351.0805</v>
-      </c>
-      <c r="G91" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C92" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D92" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E92" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F92" t="n">
-        <v>96000.7</v>
-      </c>
-      <c r="G92" t="n">
-        <v>17.30166666666667</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C93" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D93" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E93" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F93" t="n">
-        <v>639024.5664</v>
-      </c>
-      <c r="G93" t="n">
-        <v>17.30333333333333</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C94" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D94" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E94" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="F94" t="n">
-        <v>119810.95373988</v>
-      </c>
-      <c r="G94" t="n">
-        <v>17.305</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C95" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D95" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E95" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F95" t="n">
-        <v>16688.3236</v>
-      </c>
-      <c r="G95" t="n">
-        <v>17.305</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C96" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D96" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E96" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F96" t="n">
-        <v>119.8295</v>
-      </c>
-      <c r="G96" t="n">
-        <v>17.30666666666666</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C97" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D97" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E97" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F97" t="n">
-        <v>10</v>
-      </c>
-      <c r="G97" t="n">
-        <v>17.30666666666666</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C98" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D98" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E98" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F98" t="n">
-        <v>13288.4585</v>
-      </c>
-      <c r="G98" t="n">
-        <v>17.30666666666666</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C99" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D99" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E99" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F99" t="n">
-        <v>557496.5923</v>
-      </c>
-      <c r="G99" t="n">
-        <v>17.30666666666666</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C100" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D100" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E100" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F100" t="n">
-        <v>386186.6252</v>
-      </c>
-      <c r="G100" t="n">
-        <v>17.30666666666666</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C101" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D101" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E101" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F101" t="n">
-        <v>463482.4627</v>
-      </c>
-      <c r="G101" t="n">
-        <v>17.30666666666666</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C102" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D102" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E102" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F102" t="n">
-        <v>90108.0941</v>
-      </c>
-      <c r="G102" t="n">
-        <v>17.30666666666666</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C103" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D103" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E103" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F103" t="n">
-        <v>202</v>
-      </c>
-      <c r="G103" t="n">
-        <v>17.30666666666666</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C104" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D104" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E104" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="F104" t="n">
-        <v>309495.3166</v>
-      </c>
-      <c r="G104" t="n">
-        <v>17.30666666666666</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4506,12 +4078,14 @@
         <v>17.30833333333333</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
@@ -4545,12 +4119,14 @@
         <v>17.30833333333333</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
@@ -4584,12 +4160,14 @@
         <v>17.30833333333333</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
@@ -4623,12 +4201,14 @@
         <v>17.30833333333333</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
@@ -4662,12 +4242,14 @@
         <v>17.31</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
@@ -4701,12 +4283,14 @@
         <v>17.31</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>17.4</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
@@ -4740,12 +4324,14 @@
         <v>17.31</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
@@ -4779,12 +4365,14 @@
         <v>17.30833333333333</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
@@ -4818,12 +4406,14 @@
         <v>17.31</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
@@ -4857,12 +4447,14 @@
         <v>17.31166666666666</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
@@ -6654,16 +6246,18 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6695,7 +6289,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6726,11 +6324,15 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6765,7 +6367,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6800,7 +6406,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6835,7 +6445,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6870,7 +6484,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6905,7 +6523,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6940,7 +6562,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6975,7 +6601,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7006,11 +6636,15 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7041,11 +6675,15 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7076,11 +6714,15 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7115,7 +6757,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7150,7 +6796,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7185,7 +6835,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7220,7 +6874,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7255,7 +6913,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7290,7 +6952,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7325,7 +6991,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7360,7 +7030,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7395,7 +7069,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7430,7 +7108,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7465,7 +7147,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7500,7 +7186,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7535,7 +7225,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7570,7 +7264,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7605,7 +7303,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7640,7 +7342,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7675,7 +7381,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7710,7 +7420,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7745,7 +7459,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7780,7 +7498,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7815,7 +7537,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7850,7 +7576,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7881,14 +7611,16 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -9278,13 +9010,17 @@
         <v>17.69166666666667</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="K235" t="n">
+        <v>17.6</v>
+      </c>
       <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
@@ -9313,14 +9049,22 @@
         <v>17.68833333333333</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K236" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9348,14 +9092,22 @@
         <v>17.68666666666666</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="K237" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9383,13 +9135,17 @@
         <v>17.68666666666666</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="K238" t="n">
+        <v>17.6</v>
+      </c>
       <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
@@ -9424,8 +9180,14 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9459,8 +9221,14 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -10156,7 +9924,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
@@ -10191,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
@@ -10261,7 +10029,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>

--- a/BackTest/2019-10-25 BackTest TRX.xlsx
+++ b/BackTest/2019-10-25 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>74821.06363157002</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>74821.06363157002</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>16.8</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,7 +521,7 @@
         <v>74821.06363157002</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>16.8</v>
@@ -525,7 +529,11 @@
       <c r="J4" t="n">
         <v>16.8</v>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -554,7 +562,7 @@
         <v>84821.06363157002</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>16.8</v>
@@ -595,19 +603,15 @@
         <v>84344.77913157003</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>16.9</v>
       </c>
       <c r="J6" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>16.9</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -636,13 +640,13 @@
         <v>84344.77913157003</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>16.7</v>
       </c>
       <c r="J7" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -677,13 +681,13 @@
         <v>94344.77913157003</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>16.7</v>
       </c>
       <c r="J8" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -718,13 +722,13 @@
         <v>94344.77913157003</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>16.8</v>
       </c>
       <c r="J9" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -759,13 +763,13 @@
         <v>-1110277.46680652</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>16.8</v>
       </c>
       <c r="J10" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -800,13 +804,13 @@
         <v>-1017137.50970652</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>16.7</v>
       </c>
       <c r="J11" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -841,11 +845,13 @@
         <v>-1017137.50970652</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>16.8</v>
+      </c>
       <c r="J12" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -880,11 +886,13 @@
         <v>-1110555.39740652</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>16.8</v>
+      </c>
       <c r="J13" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -919,13 +927,13 @@
         <v>-1110423.73080652</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>16.7</v>
       </c>
       <c r="J14" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -960,13 +968,13 @@
         <v>-1110423.73080652</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>16.8</v>
       </c>
       <c r="J15" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1001,13 +1009,13 @@
         <v>-1110423.73080652</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>16.8</v>
       </c>
       <c r="J16" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1042,13 +1050,13 @@
         <v>-1110423.73080652</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>16.8</v>
       </c>
       <c r="J17" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1083,13 +1091,13 @@
         <v>-1110423.73080652</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>16.8</v>
       </c>
       <c r="J18" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1124,13 +1132,13 @@
         <v>-992254.8048065198</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>16.8</v>
       </c>
       <c r="J19" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1165,13 +1173,13 @@
         <v>-993143.4857065198</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>16.9</v>
       </c>
       <c r="J20" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1206,13 +1214,13 @@
         <v>-296814.0993065198</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>16.8</v>
       </c>
       <c r="J21" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1247,13 +1255,13 @@
         <v>-296814.0993065198</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>16.9</v>
       </c>
       <c r="J22" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1288,13 +1296,13 @@
         <v>-296814.0993065198</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>16.9</v>
       </c>
       <c r="J23" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1329,13 +1337,13 @@
         <v>-296814.0993065198</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>16.9</v>
       </c>
       <c r="J24" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1370,13 +1378,13 @@
         <v>-296814.0993065198</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>16.9</v>
       </c>
       <c r="J25" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1411,13 +1419,13 @@
         <v>-296814.0993065198</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>16.9</v>
       </c>
       <c r="J26" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1452,13 +1460,13 @@
         <v>-279933.0993065198</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>16.9</v>
       </c>
       <c r="J27" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1497,7 +1505,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1536,7 +1544,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1575,7 +1583,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1610,11 +1618,13 @@
         <v>-287746.4070065198</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>16.9</v>
+      </c>
       <c r="J31" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1649,11 +1659,13 @@
         <v>-287746.4070065198</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>16.9</v>
+      </c>
       <c r="J32" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1688,11 +1700,13 @@
         <v>-287569.9364182898</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>16.9</v>
+      </c>
       <c r="J33" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1727,11 +1741,13 @@
         <v>-296651.0398182899</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>17</v>
+      </c>
       <c r="J34" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1770,7 +1786,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1809,7 +1825,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1848,7 +1864,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1887,7 +1903,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1926,7 +1942,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1965,7 +1981,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -2004,7 +2020,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2043,7 +2059,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2082,7 +2098,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2121,7 +2137,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2160,7 +2176,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2199,7 +2215,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2238,7 +2254,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2277,7 +2293,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2316,7 +2332,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2355,7 +2371,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2394,7 +2410,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2433,7 +2449,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2472,7 +2488,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2511,7 +2527,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2550,7 +2566,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2589,7 +2605,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2628,7 +2644,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2667,7 +2683,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2706,7 +2722,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2745,7 +2761,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2784,7 +2800,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2823,7 +2839,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2862,7 +2878,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2897,11 +2913,13 @@
         <v>-456085.9512182899</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>16.9</v>
+      </c>
       <c r="J64" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2936,11 +2954,13 @@
         <v>-456085.9512182899</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>17</v>
+      </c>
       <c r="J65" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2979,7 +2999,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -3018,7 +3038,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3057,7 +3077,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3096,7 +3116,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3135,7 +3155,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3174,7 +3194,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3213,7 +3233,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3252,7 +3272,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3291,7 +3311,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3330,7 +3350,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3369,7 +3389,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3408,7 +3428,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3447,7 +3467,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3486,7 +3506,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3525,7 +3545,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3564,7 +3584,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3603,7 +3623,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3642,7 +3662,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3681,7 +3701,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3720,7 +3740,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3759,7 +3779,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3798,7 +3818,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3837,7 +3857,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3876,7 +3896,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3915,7 +3935,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3954,7 +3974,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3993,7 +4013,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4032,7 +4052,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4071,7 +4091,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4110,7 +4130,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4149,7 +4169,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4188,7 +4208,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4227,7 +4247,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4266,7 +4286,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4305,7 +4325,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4344,7 +4364,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4383,7 +4403,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4422,7 +4442,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4461,7 +4481,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4500,7 +4520,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4539,7 +4559,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4578,7 +4598,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4617,7 +4637,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4656,7 +4676,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4695,7 +4715,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4734,7 +4754,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4773,7 +4793,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4812,7 +4832,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4851,7 +4871,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4890,7 +4910,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4929,7 +4949,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4968,7 +4988,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -5007,7 +5027,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -5046,7 +5066,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5085,7 +5105,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5124,7 +5144,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5163,7 +5183,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5202,7 +5222,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5241,7 +5261,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5280,7 +5300,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5319,7 +5339,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5358,7 +5378,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5397,7 +5417,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5436,7 +5456,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5475,7 +5495,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5514,7 +5534,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5553,7 +5573,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5592,7 +5612,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5631,7 +5651,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5670,7 +5690,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5709,7 +5729,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5748,7 +5768,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5787,7 +5807,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5826,7 +5846,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5865,7 +5885,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5904,7 +5924,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5943,7 +5963,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5982,7 +6002,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -6021,7 +6041,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -6060,7 +6080,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6099,7 +6119,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6138,7 +6158,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6177,7 +6197,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6216,7 +6236,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6255,7 +6275,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6294,7 +6314,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6333,7 +6353,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6372,7 +6392,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6411,7 +6431,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6450,7 +6470,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6489,7 +6509,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6528,7 +6548,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6567,7 +6587,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6602,11 +6622,11 @@
         <v>470914.6712540002</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6645,7 +6665,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6684,7 +6704,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6723,7 +6743,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6758,11 +6778,11 @@
         <v>470914.6712540002</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6801,7 +6821,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6840,7 +6860,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6879,7 +6899,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6918,7 +6938,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6957,7 +6977,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6996,7 +7016,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -7035,7 +7055,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -7074,7 +7094,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -7113,7 +7133,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -7152,7 +7172,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7191,7 +7211,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7230,7 +7250,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7265,11 +7285,11 @@
         <v>1040617.864254</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7308,7 +7328,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7347,7 +7367,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7386,7 +7406,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7421,11 +7441,11 @@
         <v>1017861.617654</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7464,7 +7484,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7499,11 +7519,11 @@
         <v>1023608.744054</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7538,11 +7558,11 @@
         <v>993031.0807540001</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7577,11 +7597,11 @@
         <v>993031.0807540001</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7620,7 +7640,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7655,11 +7675,11 @@
         <v>1018731.080754</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7694,11 +7714,11 @@
         <v>1018731.080754</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7733,11 +7753,11 @@
         <v>1018731.080754</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7772,11 +7792,11 @@
         <v>1018731.080754</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7811,11 +7831,11 @@
         <v>1018731.080754</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7850,11 +7870,11 @@
         <v>1018731.080754</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7889,11 +7909,11 @@
         <v>1018731.080754</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7932,7 +7952,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7971,7 +7991,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -8010,7 +8030,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -8049,7 +8069,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -8088,7 +8108,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -8127,7 +8147,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -8166,7 +8186,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8201,11 +8221,11 @@
         <v>831832.0807540001</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8244,7 +8264,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8283,7 +8303,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8322,7 +8342,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8357,11 +8377,11 @@
         <v>830439.9974540001</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8400,7 +8420,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8439,7 +8459,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8478,7 +8498,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8513,11 +8533,11 @@
         <v>998594.8652540001</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8556,7 +8576,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8595,7 +8615,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8634,7 +8654,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8673,7 +8693,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8712,7 +8732,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8751,7 +8771,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8790,7 +8810,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8825,11 +8845,11 @@
         <v>924587.918654</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8868,7 +8888,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8907,7 +8927,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8946,7 +8966,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8985,7 +9005,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -9024,7 +9044,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -9063,7 +9083,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -9102,7 +9122,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -9141,7 +9161,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -9180,7 +9200,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -9219,7 +9239,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -9258,7 +9278,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -9297,7 +9317,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -9336,7 +9356,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -9375,7 +9395,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -9414,7 +9434,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -9453,7 +9473,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9492,7 +9512,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9531,7 +9551,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9570,7 +9590,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9609,7 +9629,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9648,7 +9668,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9687,7 +9707,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9726,7 +9746,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9765,7 +9785,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9804,7 +9824,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9843,7 +9863,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9882,7 +9902,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9921,7 +9941,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9960,7 +9980,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -9999,7 +10019,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -10038,7 +10058,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -10077,7 +10097,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -10116,7 +10136,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -10155,7 +10175,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -10194,7 +10214,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -10233,7 +10253,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -10272,7 +10292,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -10311,7 +10331,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -10350,7 +10370,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -10389,7 +10409,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -10428,7 +10448,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -10467,7 +10487,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -10506,7 +10526,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -10545,7 +10565,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -10584,7 +10604,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -10623,7 +10643,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -10662,7 +10682,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -10701,7 +10721,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -10740,7 +10760,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -10779,7 +10799,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -10818,7 +10838,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -10857,7 +10877,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -10896,7 +10916,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -10935,7 +10955,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -10974,7 +10994,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -11013,7 +11033,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -11052,7 +11072,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -11091,7 +11111,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -11130,7 +11150,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -11169,7 +11189,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -11208,7 +11228,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -11247,7 +11267,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -11286,7 +11306,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -11325,7 +11345,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -11364,7 +11384,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -11403,7 +11423,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -11442,7 +11462,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -11481,7 +11501,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -11520,7 +11540,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -11559,7 +11579,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -11598,7 +11618,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -11637,7 +11657,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -11676,7 +11696,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -11715,7 +11735,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -11754,7 +11774,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -11793,7 +11813,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -11832,7 +11852,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -11871,7 +11891,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -11910,7 +11930,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -11949,7 +11969,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -11988,7 +12008,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -12027,7 +12047,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -12066,7 +12086,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -12105,7 +12125,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -12144,7 +12164,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -12183,7 +12203,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -12222,7 +12242,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -12261,7 +12281,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -12300,7 +12320,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -12339,7 +12359,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -12378,7 +12398,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -12417,7 +12437,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -12456,7 +12476,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -12495,7 +12515,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -12534,7 +12554,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -12573,7 +12593,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -12612,7 +12632,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -12651,7 +12671,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -12690,7 +12710,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -12729,7 +12749,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -12768,7 +12788,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -12807,7 +12827,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -12846,7 +12866,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -12885,7 +12905,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -12924,7 +12944,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -12959,23 +12979,21 @@
         <v>2010773.9087905</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L322" t="n">
-        <v>1.066428571428572</v>
-      </c>
-      <c r="M322" t="n">
-        <v>1.011976047904191</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -13000,11 +13018,17 @@
         <v>2010773.9087905</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -13033,11 +13057,17 @@
         <v>2010773.9087905</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -13069,8 +13099,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13102,8 +13138,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13135,8 +13177,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13168,8 +13216,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13201,8 +13255,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13234,8 +13294,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13267,8 +13333,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13300,8 +13372,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13333,8 +13411,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13366,8 +13450,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13399,8 +13489,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13432,8 +13528,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13465,8 +13567,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13498,8 +13606,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13531,8 +13645,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13564,8 +13684,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13597,8 +13723,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13630,8 +13762,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13663,8 +13801,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13696,8 +13840,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13729,8 +13879,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13762,8 +13918,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13795,8 +13957,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13828,8 +13996,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13861,8 +14035,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13894,8 +14074,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13927,8 +14113,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13960,8 +14152,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13993,8 +14191,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14026,8 +14230,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14059,8 +14269,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14092,8 +14308,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14125,8 +14347,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14158,8 +14386,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14191,8 +14425,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14224,8 +14464,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14257,8 +14503,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14290,8 +14542,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14323,8 +14581,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14356,8 +14620,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14389,8 +14659,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14422,8 +14698,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14455,8 +14737,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14488,8 +14776,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14521,8 +14815,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14554,8 +14854,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14587,8 +14893,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14620,8 +14932,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14653,8 +14971,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14686,8 +15010,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14719,8 +15049,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14752,8 +15088,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14785,8 +15127,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14815,11 +15163,17 @@
         <v>2977418.750833301</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14851,8 +15205,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14881,11 +15241,17 @@
         <v>3150788.075052851</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14917,8 +15283,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14950,8 +15322,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14983,8 +15361,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15016,8 +15400,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15049,8 +15439,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15082,8 +15478,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15115,8 +15517,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15145,11 +15553,17 @@
         <v>3133880.386952851</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15181,8 +15595,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15214,8 +15634,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15247,8 +15673,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15280,8 +15712,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15313,8 +15751,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15343,11 +15787,17 @@
         <v>2948447.283752851</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15376,11 +15826,17 @@
         <v>2948447.283752851</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15409,11 +15865,17 @@
         <v>2948447.283752851</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15445,8 +15907,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15475,11 +15943,17 @@
         <v>3306938.261452851</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15508,11 +15982,17 @@
         <v>3298544.702152852</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15544,8 +16024,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15577,8 +16063,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15610,8 +16102,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15643,8 +16141,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15676,8 +16180,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15709,8 +16219,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15742,8 +16258,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15775,8 +16297,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15808,8 +16336,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15841,8 +16375,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15874,8 +16414,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15907,8 +16453,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15940,8 +16492,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15973,8 +16531,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16006,8 +16570,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16039,8 +16609,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16072,8 +16648,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16105,8 +16687,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16138,8 +16726,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16171,8 +16765,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16204,8 +16804,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16237,8 +16843,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16267,11 +16879,17 @@
         <v>3050002.871952851</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16300,11 +16918,17 @@
         <v>3050002.871952851</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16333,11 +16957,17 @@
         <v>3050002.871952851</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16366,15 +16996,23 @@
         <v>3057134.446506991</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L425" t="n">
-        <v>1</v>
-      </c>
-      <c r="M425" t="inlineStr"/>
+        <v>1.066005917159764</v>
+      </c>
+      <c r="M425" t="n">
+        <v>1.011976047904191</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
@@ -16399,7 +17037,7 @@
         <v>3057134.446506991</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16432,7 +17070,7 @@
         <v>2757017.319506991</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16465,7 +17103,7 @@
         <v>2757027.319506991</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16498,7 +17136,7 @@
         <v>2638024.375095881</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16531,7 +17169,7 @@
         <v>2636868.404895881</v>
       </c>
       <c r="H430" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16630,7 +17268,7 @@
         <v>2736880.404895881</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16663,7 +17301,7 @@
         <v>2434620.404895881</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16696,7 +17334,7 @@
         <v>2434620.404895881</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16729,7 +17367,7 @@
         <v>2434620.404895881</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16762,7 +17400,7 @@
         <v>2434620.404895881</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16795,7 +17433,7 @@
         <v>2434620.404895881</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16828,7 +17466,7 @@
         <v>2427992.262995881</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16894,7 +17532,7 @@
         <v>2446611.781408721</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16960,7 +17598,7 @@
         <v>2446611.781408721</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16993,7 +17631,7 @@
         <v>2446611.781408721</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -17026,7 +17664,7 @@
         <v>2446611.781408721</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -17059,7 +17697,7 @@
         <v>2446611.781408721</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -17092,7 +17730,7 @@
         <v>2446611.781408721</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -17125,7 +17763,7 @@
         <v>2446611.781408721</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -17158,7 +17796,7 @@
         <v>2446611.781408721</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -17191,7 +17829,7 @@
         <v>884549.1672087212</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -17224,7 +17862,7 @@
         <v>901044.9518087212</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -17257,7 +17895,7 @@
         <v>909066.6551087212</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -17290,7 +17928,7 @@
         <v>909066.6551087212</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -17587,7 +18225,7 @@
         <v>891611.4103087211</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -18643,7 +19281,7 @@
         <v>3806558.274108721</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18676,7 +19314,7 @@
         <v>3806558.274108721</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18709,7 +19347,7 @@
         <v>3806558.274108721</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18742,7 +19380,7 @@
         <v>3806558.274108721</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18775,7 +19413,7 @@
         <v>3806558.274108721</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18808,7 +19446,7 @@
         <v>3781137.547308721</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18874,7 +19512,7 @@
         <v>3781137.547308721</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18907,7 +19545,7 @@
         <v>3781137.547308721</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18940,7 +19578,7 @@
         <v>3781137.547308721</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18973,7 +19611,7 @@
         <v>3781137.547308721</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -19006,7 +19644,7 @@
         <v>3781137.547308721</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -19039,7 +19677,7 @@
         <v>3781137.547308721</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -19105,7 +19743,7 @@
         <v>3781137.547308721</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -19138,7 +19776,7 @@
         <v>3781147.547308721</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19171,7 +19809,7 @@
         <v>3781095.278308721</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19204,7 +19842,7 @@
         <v>3782138.191208721</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19237,7 +19875,7 @@
         <v>3782138.191208721</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19270,7 +19908,7 @@
         <v>3782138.191208721</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19303,7 +19941,7 @@
         <v>3782138.191208721</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19336,7 +19974,7 @@
         <v>3782138.191208721</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19369,7 +20007,7 @@
         <v>3781138.191208721</v>
       </c>
       <c r="H516" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19402,7 +20040,7 @@
         <v>3907220.865008721</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19435,7 +20073,7 @@
         <v>3907220.865008721</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19468,7 +20106,7 @@
         <v>3907220.865008721</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19501,7 +20139,7 @@
         <v>3907220.865008721</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19534,7 +20172,7 @@
         <v>3862262.560008721</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19567,7 +20205,7 @@
         <v>3862262.560008721</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19600,7 +20238,7 @@
         <v>3862272.560008721</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19633,7 +20271,7 @@
         <v>3808480.816708721</v>
       </c>
       <c r="H524" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19666,7 +20304,7 @@
         <v>3808480.816708721</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19699,7 +20337,7 @@
         <v>3808480.816708721</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19732,7 +20370,7 @@
         <v>3808480.816708721</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19765,7 +20403,7 @@
         <v>3808480.816708721</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19798,7 +20436,7 @@
         <v>3808480.816708721</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19831,7 +20469,7 @@
         <v>3808480.816708721</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19864,7 +20502,7 @@
         <v>3808480.816708721</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19897,7 +20535,7 @@
         <v>3808480.816708721</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19930,7 +20568,7 @@
         <v>3808480.816708721</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19963,7 +20601,7 @@
         <v>3808480.816708721</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19996,7 +20634,7 @@
         <v>3801863.659308721</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -20029,7 +20667,7 @@
         <v>4065442.624108721</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20062,7 +20700,7 @@
         <v>4065442.624108721</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20095,7 +20733,7 @@
         <v>4180842.854108721</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20128,7 +20766,7 @@
         <v>4180842.854108721</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20161,7 +20799,7 @@
         <v>4180842.854108721</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20194,7 +20832,7 @@
         <v>8534618.186154582</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20227,7 +20865,7 @@
         <v>8534618.186154582</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20260,7 +20898,7 @@
         <v>8534618.186154582</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20293,7 +20931,7 @@
         <v>8534618.186154582</v>
       </c>
       <c r="H544" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20326,7 +20964,7 @@
         <v>8511856.459754582</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20359,7 +20997,7 @@
         <v>8511856.459754582</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20392,7 +21030,7 @@
         <v>8511856.459754582</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20425,7 +21063,7 @@
         <v>8511866.459754582</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20458,7 +21096,7 @@
         <v>8511866.459754582</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20491,7 +21129,7 @@
         <v>8511866.459754582</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20524,7 +21162,7 @@
         <v>8511866.459754582</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20557,7 +21195,7 @@
         <v>8506138.160954582</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20590,7 +21228,7 @@
         <v>8506138.160954582</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20623,7 +21261,7 @@
         <v>8506138.160954582</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20656,7 +21294,7 @@
         <v>9753325.840454582</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20689,7 +21327,7 @@
         <v>9753325.840454582</v>
       </c>
       <c r="H556" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20722,7 +21360,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20755,7 +21393,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H558" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20788,7 +21426,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H559" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20821,7 +21459,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20854,7 +21492,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20887,7 +21525,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20920,7 +21558,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20953,7 +21591,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20986,7 +21624,7 @@
         <v>9635381.179954583</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20997,6 +21635,6 @@
       <c r="M565" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-25 BackTest TRX.xlsx
+++ b/BackTest/2019-10-25 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1173,11 +1173,9 @@
         <v>-993143.4857065198</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>16.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>16.9</v>
       </c>
@@ -1255,11 +1253,9 @@
         <v>-296814.0993065198</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>16.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>16.9</v>
       </c>
@@ -1296,11 +1292,9 @@
         <v>-296814.0993065198</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>16.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>16.9</v>
       </c>
@@ -1337,11 +1331,9 @@
         <v>-296814.0993065198</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>16.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>16.9</v>
       </c>
@@ -1378,11 +1370,9 @@
         <v>-296814.0993065198</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>16.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>16.9</v>
       </c>
@@ -1419,11 +1409,9 @@
         <v>-296814.0993065198</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>16.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>16.9</v>
       </c>
@@ -1460,11 +1448,9 @@
         <v>-279933.0993065198</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>16.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>16.9</v>
       </c>
@@ -1618,11 +1604,9 @@
         <v>-287746.4070065198</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>16.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>16.9</v>
       </c>
@@ -1659,11 +1643,9 @@
         <v>-287746.4070065198</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>16.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>16.9</v>
       </c>
@@ -1700,11 +1682,9 @@
         <v>-287569.9364182898</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>16.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>16.9</v>
       </c>
@@ -1741,11 +1721,9 @@
         <v>-296651.0398182899</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>16.9</v>
       </c>
@@ -2913,11 +2891,9 @@
         <v>-456085.9512182899</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>16.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
         <v>16.9</v>
       </c>
@@ -2954,11 +2930,9 @@
         <v>-456085.9512182899</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
         <v>16.9</v>
       </c>
@@ -4126,7 +4100,7 @@
         <v>435313.0028817101</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
@@ -4134,11 +4108,11 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1</v>
+        <v>1.012751479289941</v>
       </c>
       <c r="M95" t="inlineStr"/>
     </row>
@@ -4165,17 +4139,11 @@
         <v>435656.0086620501</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4204,17 +4172,11 @@
         <v>435656.0086620501</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4243,17 +4205,11 @@
         <v>435656.0086620501</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4282,17 +4238,11 @@
         <v>435656.0086620501</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4321,17 +4271,11 @@
         <v>435656.0086620501</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4360,17 +4304,11 @@
         <v>435656.0086620501</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4399,17 +4337,11 @@
         <v>435656.0086620501</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4438,17 +4370,11 @@
         <v>435656.0086620501</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4477,17 +4403,11 @@
         <v>330103.5614620501</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4516,17 +4436,11 @@
         <v>330919.3953620501</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4555,17 +4469,11 @@
         <v>330919.3953620501</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4594,17 +4502,11 @@
         <v>330919.3953620501</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4633,17 +4535,11 @@
         <v>330919.3953620501</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4672,17 +4568,11 @@
         <v>330919.3953620501</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4711,17 +4601,11 @@
         <v>330919.3953620501</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4750,17 +4634,11 @@
         <v>493304.4785540001</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4789,17 +4667,11 @@
         <v>395667.6131540001</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4828,17 +4700,11 @@
         <v>410148.4801540001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4867,17 +4733,11 @@
         <v>410148.4801540001</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4906,17 +4766,11 @@
         <v>189875.3957540001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4945,17 +4799,11 @@
         <v>228321.0897540001</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4984,17 +4832,11 @@
         <v>228321.0897540001</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5023,17 +4865,11 @@
         <v>228321.0897540001</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5062,17 +4898,11 @@
         <v>228321.0897540001</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5101,17 +4931,11 @@
         <v>555271.2046540001</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5140,17 +4964,11 @@
         <v>521704.6011540001</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5179,17 +4997,11 @@
         <v>521704.6011540001</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5218,17 +5030,11 @@
         <v>521704.6011540001</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5257,17 +5063,11 @@
         <v>521704.6011540001</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5296,17 +5096,11 @@
         <v>521704.6011540001</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5335,17 +5129,11 @@
         <v>521704.6011540001</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5374,17 +5162,11 @@
         <v>521704.6011540001</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5413,17 +5195,11 @@
         <v>521704.6011540001</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5452,17 +5228,11 @@
         <v>521554.6011540001</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5491,17 +5261,11 @@
         <v>521564.6011540001</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5530,17 +5294,11 @@
         <v>505224.4717540002</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5569,17 +5327,11 @@
         <v>505234.4717540002</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5608,17 +5360,11 @@
         <v>505234.4717540002</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5647,17 +5393,11 @@
         <v>505234.4717540002</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5686,17 +5426,11 @@
         <v>505234.4717540002</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5725,17 +5459,11 @@
         <v>505234.4717540002</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5764,17 +5492,11 @@
         <v>505234.4717540002</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5803,17 +5525,11 @@
         <v>488234.1529540002</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5842,17 +5558,11 @@
         <v>488244.1529540002</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5881,17 +5591,11 @@
         <v>488244.1529540002</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5920,17 +5624,11 @@
         <v>293736.7709540002</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5959,17 +5657,11 @@
         <v>293736.7709540002</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5998,17 +5690,11 @@
         <v>293736.7709540002</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6037,17 +5723,11 @@
         <v>281380.3334540002</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6079,14 +5759,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6118,14 +5792,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6157,14 +5825,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6196,14 +5858,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6235,14 +5891,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6274,14 +5924,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6313,14 +5957,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6352,14 +5990,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6391,14 +6023,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6430,14 +6056,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6469,14 +6089,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6508,14 +6122,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6547,14 +6155,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6586,14 +6188,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6622,17 +6218,11 @@
         <v>470914.6712540002</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6661,17 +6251,11 @@
         <v>470914.6712540002</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6700,17 +6284,11 @@
         <v>470914.6712540002</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6739,17 +6317,11 @@
         <v>470914.6712540002</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6778,17 +6350,11 @@
         <v>470914.6712540002</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6820,14 +6386,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6856,17 +6416,11 @@
         <v>470914.6712540002</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6898,14 +6452,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6934,17 +6482,11 @@
         <v>470914.6712540002</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6973,17 +6515,11 @@
         <v>470944.6712540002</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7012,17 +6548,11 @@
         <v>441299.0119540002</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7051,17 +6581,11 @@
         <v>441299.0119540002</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7093,14 +6617,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7129,17 +6647,11 @@
         <v>441299.0119540002</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7171,14 +6683,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7207,17 +6713,11 @@
         <v>1040582.864254</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7246,17 +6746,11 @@
         <v>1040617.864254</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7285,17 +6779,11 @@
         <v>1040617.864254</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7324,17 +6812,11 @@
         <v>1026861.617654</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7363,17 +6845,11 @@
         <v>1026861.617654</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7402,17 +6878,11 @@
         <v>1026861.617654</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7441,17 +6911,11 @@
         <v>1017861.617654</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7480,17 +6944,11 @@
         <v>1023608.744054</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7522,14 +6980,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7558,17 +7010,11 @@
         <v>993031.0807540001</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7600,14 +7046,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7639,14 +7079,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7678,14 +7112,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7714,17 +7142,11 @@
         <v>1018731.080754</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7753,17 +7175,11 @@
         <v>1018731.080754</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7792,17 +7208,11 @@
         <v>1018731.080754</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7831,17 +7241,11 @@
         <v>1018731.080754</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7870,17 +7274,11 @@
         <v>1018731.080754</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7909,17 +7307,11 @@
         <v>1018731.080754</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7948,17 +7340,11 @@
         <v>1023731.080754</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7987,17 +7373,11 @@
         <v>1023731.080754</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8029,14 +7409,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8065,17 +7439,11 @@
         <v>841821.0807540001</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8104,17 +7472,11 @@
         <v>841821.0807540001</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8143,17 +7505,11 @@
         <v>841821.0807540001</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8182,17 +7538,11 @@
         <v>841832.0807540001</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8221,17 +7571,11 @@
         <v>831832.0807540001</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8260,17 +7604,11 @@
         <v>832932.0807540001</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8299,17 +7637,11 @@
         <v>832932.0807540001</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8338,17 +7670,11 @@
         <v>830439.9974540001</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8377,17 +7703,11 @@
         <v>830439.9974540001</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8416,17 +7736,11 @@
         <v>895455.654554</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8455,17 +7769,11 @@
         <v>895455.654554</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8494,17 +7802,11 @@
         <v>861035.690654</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8533,17 +7835,11 @@
         <v>998594.8652540001</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8572,17 +7868,11 @@
         <v>998594.8652540001</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8611,17 +7901,11 @@
         <v>1095780.365254</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8650,17 +7934,11 @@
         <v>924523.7709540001</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8689,17 +7967,11 @@
         <v>924523.7709540001</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8728,17 +8000,11 @@
         <v>924523.7709540001</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8767,17 +8033,11 @@
         <v>924523.7709540001</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8806,17 +8066,11 @@
         <v>924523.7709540001</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8845,17 +8099,11 @@
         <v>924587.918654</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8887,14 +8135,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8926,14 +8168,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8965,14 +8201,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9004,14 +8234,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9043,14 +8267,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9079,17 +8297,11 @@
         <v>413739.507654</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9121,14 +8333,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9160,14 +8366,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9199,14 +8399,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9238,14 +8432,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9277,14 +8465,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9316,14 +8498,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9355,14 +8531,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9394,14 +8564,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9433,14 +8597,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9472,14 +8630,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9511,14 +8663,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9550,14 +8696,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9589,14 +8729,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9628,14 +8762,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9667,14 +8795,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9706,14 +8828,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9745,14 +8861,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9784,14 +8894,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9823,14 +8927,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9862,14 +8960,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9901,14 +8993,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9940,14 +9026,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9979,14 +9059,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10018,14 +9092,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10057,14 +9125,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10096,14 +9158,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10135,14 +9191,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10174,14 +9224,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10213,14 +9257,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10252,14 +9290,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10291,14 +9323,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10330,14 +9356,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10369,14 +9389,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10408,14 +9422,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10447,14 +9455,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10486,14 +9488,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10525,14 +9521,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10564,14 +9554,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10603,14 +9587,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10642,14 +9620,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10681,14 +9653,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10720,14 +9686,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10759,14 +9719,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10798,14 +9752,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10837,14 +9785,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10876,14 +9818,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10915,14 +9851,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10954,14 +9884,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10993,14 +9917,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11032,14 +9950,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11071,14 +9983,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11110,14 +10016,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11149,14 +10049,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11188,14 +10082,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11227,14 +10115,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11266,14 +10148,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11305,14 +10181,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11344,14 +10214,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11383,14 +10247,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11422,14 +10280,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11461,14 +10313,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11500,14 +10346,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11539,14 +10379,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11578,14 +10412,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11617,14 +10445,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11656,14 +10478,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11695,14 +10511,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11734,14 +10544,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11773,14 +10577,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11812,14 +10610,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11851,14 +10643,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11890,14 +10676,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11929,14 +10709,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11968,14 +10742,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -12007,14 +10775,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -12046,14 +10808,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12085,14 +10841,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12124,14 +10874,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12163,14 +10907,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12202,14 +10940,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12241,14 +10973,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12280,14 +11006,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12319,14 +11039,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12358,14 +11072,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12397,14 +11105,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12436,14 +11138,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12475,14 +11171,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12514,14 +11204,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12553,14 +11237,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12592,14 +11270,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12631,14 +11303,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12670,14 +11336,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12709,14 +11369,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12748,14 +11402,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12787,14 +11435,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12826,14 +11468,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12865,14 +11501,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12904,14 +11534,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12943,14 +11567,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12982,14 +11600,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -13021,14 +11633,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -13060,14 +11666,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -13099,14 +11699,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13138,14 +11732,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13177,14 +11765,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13216,14 +11798,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13255,14 +11831,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13294,14 +11864,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13333,14 +11897,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13372,14 +11930,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13411,14 +11963,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13450,14 +11996,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13489,14 +12029,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13528,14 +12062,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13567,14 +12095,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13606,14 +12128,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13645,14 +12161,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13684,14 +12194,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13723,14 +12227,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13762,14 +12260,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13801,14 +12293,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13840,14 +12326,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13879,14 +12359,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13918,14 +12392,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13957,14 +12425,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13996,14 +12458,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -14035,14 +12491,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -14074,14 +12524,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -14113,14 +12557,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -14152,14 +12590,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14191,14 +12623,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14230,14 +12656,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14269,14 +12689,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14308,14 +12722,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14347,14 +12755,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14386,14 +12788,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14425,14 +12821,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14464,14 +12854,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14503,14 +12887,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14542,14 +12920,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14581,14 +12953,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14620,14 +12986,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14659,14 +13019,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14698,14 +13052,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14737,14 +13085,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14776,14 +13118,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14815,14 +13151,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14854,14 +13184,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14893,14 +13217,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14932,14 +13250,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14971,14 +13283,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -15010,14 +13316,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -15049,14 +13349,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -15088,14 +13382,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -15127,14 +13415,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -15166,14 +13448,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -15205,14 +13481,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -15244,14 +13514,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -15283,14 +13547,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15322,14 +13580,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15361,14 +13613,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15400,14 +13646,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15439,14 +13679,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15478,14 +13712,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15517,14 +13745,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15556,14 +13778,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15595,14 +13811,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15634,14 +13844,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15673,14 +13877,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15712,14 +13910,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15751,14 +13943,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15790,14 +13976,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15829,14 +14009,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15868,14 +14042,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15907,14 +14075,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15946,14 +14108,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15985,14 +14141,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -16024,14 +14174,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -16063,14 +14207,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -16102,14 +14240,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -16141,14 +14273,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -16180,14 +14306,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -16219,14 +14339,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -16258,14 +14372,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -16297,14 +14405,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -16336,14 +14438,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -16375,14 +14471,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16414,14 +14504,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16453,14 +14537,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16492,14 +14570,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16531,14 +14603,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16570,14 +14636,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16609,14 +14669,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16648,14 +14702,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16687,14 +14735,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16726,14 +14768,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16765,14 +14801,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16804,14 +14834,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16843,14 +14867,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16882,14 +14900,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16921,14 +14933,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16960,14 +14966,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16996,23 +14996,15 @@
         <v>3057134.446506991</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
-        <v>1.066005917159764</v>
-      </c>
-      <c r="M425" t="n">
-        <v>1.011976047904191</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
@@ -17037,7 +15029,7 @@
         <v>3057134.446506991</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -17070,7 +15062,7 @@
         <v>2757017.319506991</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -17103,7 +15095,7 @@
         <v>2757027.319506991</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -17136,7 +15128,7 @@
         <v>2638024.375095881</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -17169,7 +15161,7 @@
         <v>2636868.404895881</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -17268,7 +15260,7 @@
         <v>2736880.404895881</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -17301,7 +15293,7 @@
         <v>2434620.404895881</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -17334,7 +15326,7 @@
         <v>2434620.404895881</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -17367,7 +15359,7 @@
         <v>2434620.404895881</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -17400,7 +15392,7 @@
         <v>2434620.404895881</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -17433,7 +15425,7 @@
         <v>2434620.404895881</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -17466,7 +15458,7 @@
         <v>2427992.262995881</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -17532,7 +15524,7 @@
         <v>2446611.781408721</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -17598,7 +15590,7 @@
         <v>2446611.781408721</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -17631,7 +15623,7 @@
         <v>2446611.781408721</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -17664,7 +15656,7 @@
         <v>2446611.781408721</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -17697,7 +15689,7 @@
         <v>2446611.781408721</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -17730,7 +15722,7 @@
         <v>2446611.781408721</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -17763,7 +15755,7 @@
         <v>2446611.781408721</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -17796,7 +15788,7 @@
         <v>2446611.781408721</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -17829,7 +15821,7 @@
         <v>884549.1672087212</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -17862,7 +15854,7 @@
         <v>901044.9518087212</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -17895,7 +15887,7 @@
         <v>909066.6551087212</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -17928,7 +15920,7 @@
         <v>909066.6551087212</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -18225,7 +16217,7 @@
         <v>891611.4103087211</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -19281,7 +17273,7 @@
         <v>3806558.274108721</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -19314,7 +17306,7 @@
         <v>3806558.274108721</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -19347,7 +17339,7 @@
         <v>3806558.274108721</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -19380,7 +17372,7 @@
         <v>3806558.274108721</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -19413,7 +17405,7 @@
         <v>3806558.274108721</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -19446,7 +17438,7 @@
         <v>3781137.547308721</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -19512,7 +17504,7 @@
         <v>3781137.547308721</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -19545,7 +17537,7 @@
         <v>3781137.547308721</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -19578,7 +17570,7 @@
         <v>3781137.547308721</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -19611,7 +17603,7 @@
         <v>3781137.547308721</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -19644,7 +17636,7 @@
         <v>3781137.547308721</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -19677,7 +17669,7 @@
         <v>3781137.547308721</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -19743,7 +17735,7 @@
         <v>3781137.547308721</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -19776,7 +17768,7 @@
         <v>3781147.547308721</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19809,7 +17801,7 @@
         <v>3781095.278308721</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19842,7 +17834,7 @@
         <v>3782138.191208721</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19875,7 +17867,7 @@
         <v>3782138.191208721</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19908,7 +17900,7 @@
         <v>3782138.191208721</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19941,7 +17933,7 @@
         <v>3782138.191208721</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19974,7 +17966,7 @@
         <v>3782138.191208721</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -20007,7 +17999,7 @@
         <v>3781138.191208721</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -20040,7 +18032,7 @@
         <v>3907220.865008721</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -20073,7 +18065,7 @@
         <v>3907220.865008721</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -20106,7 +18098,7 @@
         <v>3907220.865008721</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -20139,7 +18131,7 @@
         <v>3907220.865008721</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -20172,7 +18164,7 @@
         <v>3862262.560008721</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -20205,7 +18197,7 @@
         <v>3862262.560008721</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -20238,7 +18230,7 @@
         <v>3862272.560008721</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -20271,7 +18263,7 @@
         <v>3808480.816708721</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -20304,7 +18296,7 @@
         <v>3808480.816708721</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -20337,7 +18329,7 @@
         <v>3808480.816708721</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -20370,7 +18362,7 @@
         <v>3808480.816708721</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -20403,7 +18395,7 @@
         <v>3808480.816708721</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -20436,7 +18428,7 @@
         <v>3808480.816708721</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -20469,7 +18461,7 @@
         <v>3808480.816708721</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -20502,7 +18494,7 @@
         <v>3808480.816708721</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -20535,7 +18527,7 @@
         <v>3808480.816708721</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -20568,7 +18560,7 @@
         <v>3808480.816708721</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -20601,7 +18593,7 @@
         <v>3808480.816708721</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -20634,7 +18626,7 @@
         <v>3801863.659308721</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -20667,7 +18659,7 @@
         <v>4065442.624108721</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20700,7 +18692,7 @@
         <v>4065442.624108721</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20733,7 +18725,7 @@
         <v>4180842.854108721</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20766,7 +18758,7 @@
         <v>4180842.854108721</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20799,7 +18791,7 @@
         <v>4180842.854108721</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20832,7 +18824,7 @@
         <v>8534618.186154582</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20865,7 +18857,7 @@
         <v>8534618.186154582</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20898,7 +18890,7 @@
         <v>8534618.186154582</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20931,7 +18923,7 @@
         <v>8534618.186154582</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20964,7 +18956,7 @@
         <v>8511856.459754582</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20997,7 +18989,7 @@
         <v>8511856.459754582</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -21030,7 +19022,7 @@
         <v>8511856.459754582</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -21063,7 +19055,7 @@
         <v>8511866.459754582</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -21096,7 +19088,7 @@
         <v>8511866.459754582</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -21129,7 +19121,7 @@
         <v>8511866.459754582</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -21162,7 +19154,7 @@
         <v>8511866.459754582</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -21195,7 +19187,7 @@
         <v>8506138.160954582</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -21228,7 +19220,7 @@
         <v>8506138.160954582</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -21261,7 +19253,7 @@
         <v>8506138.160954582</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -21294,7 +19286,7 @@
         <v>9753325.840454582</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -21327,7 +19319,7 @@
         <v>9753325.840454582</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -21360,7 +19352,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -21393,7 +19385,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -21426,7 +19418,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -21459,7 +19451,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -21492,7 +19484,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -21525,7 +19517,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -21558,7 +19550,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -21591,7 +19583,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -21624,7 +19616,7 @@
         <v>9635381.179954583</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -21635,6 +19627,6 @@
       <c r="M565" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-25 BackTest TRX.xlsx
+++ b/BackTest/2019-10-25 BackTest TRX.xlsx
@@ -451,7 +451,7 @@
         <v>74821.06363157002</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>74821.06363157002</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>16.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -529,11 +525,7 @@
       <c r="J4" t="n">
         <v>16.8</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -609,9 +601,13 @@
         <v>16.9</v>
       </c>
       <c r="J6" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>16.8</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -646,7 +642,7 @@
         <v>16.7</v>
       </c>
       <c r="J7" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -687,7 +683,7 @@
         <v>16.7</v>
       </c>
       <c r="J8" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -728,7 +724,7 @@
         <v>16.8</v>
       </c>
       <c r="J9" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -769,7 +765,7 @@
         <v>16.8</v>
       </c>
       <c r="J10" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -804,13 +800,11 @@
         <v>-1017137.50970652</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>16.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -845,13 +839,11 @@
         <v>-1017137.50970652</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>16.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -886,13 +878,11 @@
         <v>-1110555.39740652</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>16.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -933,7 +923,7 @@
         <v>16.7</v>
       </c>
       <c r="J14" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -974,7 +964,7 @@
         <v>16.8</v>
       </c>
       <c r="J15" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1015,7 +1005,7 @@
         <v>16.8</v>
       </c>
       <c r="J16" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1056,7 +1046,7 @@
         <v>16.8</v>
       </c>
       <c r="J17" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1097,7 +1087,7 @@
         <v>16.8</v>
       </c>
       <c r="J18" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1138,7 +1128,7 @@
         <v>16.8</v>
       </c>
       <c r="J19" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1173,11 +1163,13 @@
         <v>-993143.4857065198</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>16.9</v>
+      </c>
       <c r="J20" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1218,7 +1210,7 @@
         <v>16.8</v>
       </c>
       <c r="J21" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1253,11 +1245,13 @@
         <v>-296814.0993065198</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>16.9</v>
+      </c>
       <c r="J22" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1292,11 +1286,13 @@
         <v>-296814.0993065198</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>16.9</v>
+      </c>
       <c r="J23" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1331,11 +1327,13 @@
         <v>-296814.0993065198</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>16.9</v>
+      </c>
       <c r="J24" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1370,11 +1368,13 @@
         <v>-296814.0993065198</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>16.9</v>
+      </c>
       <c r="J25" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1409,11 +1409,13 @@
         <v>-296814.0993065198</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>16.9</v>
+      </c>
       <c r="J26" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1452,7 +1454,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1491,7 +1493,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1530,7 +1532,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1569,7 +1571,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1604,11 +1606,13 @@
         <v>-287746.4070065198</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>16.9</v>
+      </c>
       <c r="J31" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1643,11 +1647,13 @@
         <v>-287746.4070065198</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>16.9</v>
+      </c>
       <c r="J32" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1682,11 +1688,13 @@
         <v>-287569.9364182898</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>16.9</v>
+      </c>
       <c r="J33" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1725,7 +1733,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1760,11 +1768,13 @@
         <v>-287450.2598182898</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>16.9</v>
+      </c>
       <c r="J35" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1799,11 +1809,13 @@
         <v>-287450.2598182898</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>17</v>
+      </c>
       <c r="J36" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1842,7 +1854,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1881,7 +1893,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1920,7 +1932,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1959,7 +1971,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1994,11 +2006,13 @@
         <v>-579840.0697182899</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>17</v>
+      </c>
       <c r="J41" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2033,11 +2047,13 @@
         <v>-514398.8933182899</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>16.9</v>
+      </c>
       <c r="J42" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2072,11 +2088,13 @@
         <v>-514398.8933182899</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>17</v>
+      </c>
       <c r="J43" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2111,11 +2129,13 @@
         <v>-514398.8933182899</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>17</v>
+      </c>
       <c r="J44" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2150,11 +2170,13 @@
         <v>-514398.8933182899</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>17</v>
+      </c>
       <c r="J45" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2189,11 +2211,13 @@
         <v>-517114.0003182899</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>17</v>
+      </c>
       <c r="J46" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2228,11 +2252,13 @@
         <v>-444814.0003182899</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>16.9</v>
+      </c>
       <c r="J47" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2267,11 +2293,13 @@
         <v>-447313.5642182899</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>17</v>
+      </c>
       <c r="J48" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2306,11 +2334,13 @@
         <v>-447313.5642182899</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>16.9</v>
+      </c>
       <c r="J49" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2345,11 +2375,13 @@
         <v>-445021.5642182899</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>16.9</v>
+      </c>
       <c r="J50" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2384,11 +2416,13 @@
         <v>-445021.5642182899</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>17</v>
+      </c>
       <c r="J51" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2423,11 +2457,13 @@
         <v>-445021.5642182899</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>17</v>
+      </c>
       <c r="J52" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2462,11 +2498,13 @@
         <v>-445021.5642182899</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>17</v>
+      </c>
       <c r="J53" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2501,11 +2539,13 @@
         <v>-446869.9242182899</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>17</v>
+      </c>
       <c r="J54" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2540,11 +2580,13 @@
         <v>-446869.9242182899</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>16.9</v>
+      </c>
       <c r="J55" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2579,11 +2621,13 @@
         <v>-446169.9242182899</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>16.9</v>
+      </c>
       <c r="J56" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2618,11 +2662,13 @@
         <v>-456095.9512182899</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>17</v>
+      </c>
       <c r="J57" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2657,11 +2703,13 @@
         <v>-456095.9512182899</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>16.9</v>
+      </c>
       <c r="J58" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2696,11 +2744,13 @@
         <v>-456095.9512182899</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>16.9</v>
+      </c>
       <c r="J59" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2735,11 +2785,13 @@
         <v>-456095.9512182899</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>16.9</v>
+      </c>
       <c r="J60" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2774,11 +2826,13 @@
         <v>-456095.9512182899</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>16.9</v>
+      </c>
       <c r="J61" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2813,11 +2867,13 @@
         <v>-456095.9512182899</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>16.9</v>
+      </c>
       <c r="J62" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2852,11 +2908,13 @@
         <v>-456095.9512182899</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>16.9</v>
+      </c>
       <c r="J63" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2891,11 +2949,13 @@
         <v>-456085.9512182899</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>16.9</v>
+      </c>
       <c r="J64" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2930,11 +2990,13 @@
         <v>-456085.9512182899</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>17</v>
+      </c>
       <c r="J65" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2969,11 +3031,13 @@
         <v>-456085.9512182899</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>17</v>
+      </c>
       <c r="J66" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -3008,11 +3072,13 @@
         <v>-456085.9512182899</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>17</v>
+      </c>
       <c r="J67" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3047,11 +3113,13 @@
         <v>-456085.9512182899</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>17</v>
+      </c>
       <c r="J68" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3086,11 +3154,13 @@
         <v>-456085.9512182899</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>17</v>
+      </c>
       <c r="J69" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3125,11 +3195,13 @@
         <v>-456085.9512182899</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>17</v>
+      </c>
       <c r="J70" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3164,11 +3236,13 @@
         <v>-456085.9512182899</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>17</v>
+      </c>
       <c r="J71" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3203,11 +3277,13 @@
         <v>-456085.9512182899</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>17</v>
+      </c>
       <c r="J72" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3242,11 +3318,13 @@
         <v>-456085.9512182899</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>17</v>
+      </c>
       <c r="J73" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3281,11 +3359,13 @@
         <v>-456085.9512182899</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>17</v>
+      </c>
       <c r="J74" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3324,7 +3404,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3363,7 +3443,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3402,7 +3482,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3441,7 +3521,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3480,7 +3560,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3519,7 +3599,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3558,7 +3638,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3597,7 +3677,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3636,7 +3716,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3675,7 +3755,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3714,7 +3794,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3753,7 +3833,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3792,7 +3872,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3831,7 +3911,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3870,7 +3950,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3909,7 +3989,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3948,7 +4028,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3987,7 +4067,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4026,7 +4106,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4065,7 +4145,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4100,19 +4180,19 @@
         <v>435313.0028817101</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.012751479289941</v>
+        <v>1</v>
       </c>
       <c r="M95" t="inlineStr"/>
     </row>
@@ -4139,11 +4219,17 @@
         <v>435656.0086620501</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4172,11 +4258,17 @@
         <v>435656.0086620501</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4205,11 +4297,17 @@
         <v>435656.0086620501</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4238,11 +4336,17 @@
         <v>435656.0086620501</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4271,11 +4375,17 @@
         <v>435656.0086620501</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4304,11 +4414,17 @@
         <v>435656.0086620501</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4337,11 +4453,17 @@
         <v>435656.0086620501</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4370,11 +4492,17 @@
         <v>435656.0086620501</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4403,11 +4531,17 @@
         <v>330103.5614620501</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4436,11 +4570,17 @@
         <v>330919.3953620501</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4469,11 +4609,17 @@
         <v>330919.3953620501</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4502,11 +4648,17 @@
         <v>330919.3953620501</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4535,11 +4687,17 @@
         <v>330919.3953620501</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4568,11 +4726,17 @@
         <v>330919.3953620501</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4601,11 +4765,17 @@
         <v>330919.3953620501</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4634,11 +4804,17 @@
         <v>493304.4785540001</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4667,11 +4843,17 @@
         <v>395667.6131540001</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4700,11 +4882,17 @@
         <v>410148.4801540001</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4733,11 +4921,17 @@
         <v>410148.4801540001</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4766,11 +4960,17 @@
         <v>189875.3957540001</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4799,11 +4999,17 @@
         <v>228321.0897540001</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4832,11 +5038,17 @@
         <v>228321.0897540001</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4865,11 +5077,17 @@
         <v>228321.0897540001</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4898,11 +5116,17 @@
         <v>228321.0897540001</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4931,11 +5155,17 @@
         <v>555271.2046540001</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4964,11 +5194,17 @@
         <v>521704.6011540001</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4997,11 +5233,17 @@
         <v>521704.6011540001</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5030,11 +5272,17 @@
         <v>521704.6011540001</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5063,11 +5311,17 @@
         <v>521704.6011540001</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5096,11 +5350,17 @@
         <v>521704.6011540001</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5129,11 +5389,17 @@
         <v>521704.6011540001</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5162,11 +5428,17 @@
         <v>521704.6011540001</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5195,11 +5467,17 @@
         <v>521704.6011540001</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5228,11 +5506,17 @@
         <v>521554.6011540001</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5261,11 +5545,17 @@
         <v>521564.6011540001</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5294,11 +5584,17 @@
         <v>505224.4717540002</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5327,11 +5623,17 @@
         <v>505234.4717540002</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5360,11 +5662,17 @@
         <v>505234.4717540002</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5393,11 +5701,17 @@
         <v>505234.4717540002</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5426,11 +5740,17 @@
         <v>505234.4717540002</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5459,11 +5779,17 @@
         <v>505234.4717540002</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5492,11 +5818,17 @@
         <v>505234.4717540002</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5525,11 +5857,17 @@
         <v>488234.1529540002</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5558,11 +5896,17 @@
         <v>488244.1529540002</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5591,11 +5935,17 @@
         <v>488244.1529540002</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5624,11 +5974,17 @@
         <v>293736.7709540002</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5657,11 +6013,17 @@
         <v>293736.7709540002</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5690,11 +6052,17 @@
         <v>293736.7709540002</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5723,11 +6091,17 @@
         <v>281380.3334540002</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5759,8 +6133,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5792,8 +6172,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5825,8 +6211,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5858,8 +6250,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5891,8 +6289,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5924,8 +6328,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5957,8 +6367,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5990,8 +6406,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6023,8 +6445,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6056,8 +6484,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6089,8 +6523,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6122,8 +6562,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6155,8 +6601,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6188,8 +6640,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6218,11 +6676,17 @@
         <v>470914.6712540002</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6251,11 +6715,17 @@
         <v>470914.6712540002</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6284,11 +6754,17 @@
         <v>470914.6712540002</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6317,11 +6793,17 @@
         <v>470914.6712540002</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6350,11 +6832,17 @@
         <v>470914.6712540002</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6386,8 +6874,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6416,11 +6910,17 @@
         <v>470914.6712540002</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6452,8 +6952,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6482,11 +6988,17 @@
         <v>470914.6712540002</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6515,11 +7027,17 @@
         <v>470944.6712540002</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6548,11 +7066,17 @@
         <v>441299.0119540002</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6581,11 +7105,17 @@
         <v>441299.0119540002</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6617,8 +7147,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6647,11 +7183,17 @@
         <v>441299.0119540002</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6683,8 +7225,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6713,11 +7261,17 @@
         <v>1040582.864254</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6746,11 +7300,17 @@
         <v>1040617.864254</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6779,11 +7339,17 @@
         <v>1040617.864254</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6812,11 +7378,17 @@
         <v>1026861.617654</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6845,11 +7417,17 @@
         <v>1026861.617654</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6878,11 +7456,17 @@
         <v>1026861.617654</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6911,11 +7495,17 @@
         <v>1017861.617654</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6944,11 +7534,17 @@
         <v>1023608.744054</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6980,8 +7576,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7010,11 +7612,17 @@
         <v>993031.0807540001</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7046,8 +7654,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7079,8 +7693,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7112,8 +7732,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7142,11 +7768,17 @@
         <v>1018731.080754</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7175,11 +7807,17 @@
         <v>1018731.080754</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7208,11 +7846,17 @@
         <v>1018731.080754</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7241,11 +7885,17 @@
         <v>1018731.080754</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7274,11 +7924,17 @@
         <v>1018731.080754</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7307,11 +7963,17 @@
         <v>1018731.080754</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7340,11 +8002,17 @@
         <v>1023731.080754</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7373,11 +8041,17 @@
         <v>1023731.080754</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7409,8 +8083,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7439,11 +8119,17 @@
         <v>841821.0807540001</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7472,11 +8158,17 @@
         <v>841821.0807540001</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7505,11 +8197,17 @@
         <v>841821.0807540001</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7538,11 +8236,17 @@
         <v>841832.0807540001</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7571,11 +8275,17 @@
         <v>831832.0807540001</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7604,11 +8314,17 @@
         <v>832932.0807540001</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7637,11 +8353,17 @@
         <v>832932.0807540001</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7670,11 +8392,17 @@
         <v>830439.9974540001</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7703,11 +8431,17 @@
         <v>830439.9974540001</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7736,11 +8470,17 @@
         <v>895455.654554</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7769,11 +8509,17 @@
         <v>895455.654554</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7802,11 +8548,17 @@
         <v>861035.690654</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7835,11 +8587,17 @@
         <v>998594.8652540001</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7868,11 +8626,17 @@
         <v>998594.8652540001</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7901,11 +8665,17 @@
         <v>1095780.365254</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7934,11 +8704,17 @@
         <v>924523.7709540001</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7967,11 +8743,17 @@
         <v>924523.7709540001</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8000,11 +8782,17 @@
         <v>924523.7709540001</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8033,11 +8821,17 @@
         <v>924523.7709540001</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8066,11 +8860,17 @@
         <v>924523.7709540001</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8099,11 +8899,17 @@
         <v>924587.918654</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8135,8 +8941,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8168,8 +8980,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8201,8 +9019,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8234,8 +9058,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8267,8 +9097,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8297,11 +9133,17 @@
         <v>413739.507654</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8333,8 +9175,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8366,8 +9214,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8399,8 +9253,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8432,8 +9292,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8465,8 +9331,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8498,8 +9370,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8531,8 +9409,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8564,8 +9448,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8597,8 +9487,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8630,8 +9526,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8663,8 +9565,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8696,8 +9604,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8729,8 +9643,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8762,8 +9682,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8795,8 +9721,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8828,8 +9760,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8861,8 +9799,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8894,8 +9838,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8927,8 +9877,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8960,8 +9916,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8993,8 +9955,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9026,8 +9994,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9059,8 +10033,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9092,8 +10072,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9125,8 +10111,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9158,8 +10150,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9191,8 +10189,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9224,8 +10228,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9257,8 +10267,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9290,8 +10306,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9323,8 +10345,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9356,8 +10384,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9389,8 +10423,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9422,8 +10462,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9455,8 +10501,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9488,8 +10540,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9521,8 +10579,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9554,8 +10618,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9587,8 +10657,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9620,8 +10696,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9653,8 +10735,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9686,8 +10774,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9719,8 +10813,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9752,8 +10852,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9785,8 +10891,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9818,8 +10930,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9851,8 +10969,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9884,8 +11008,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9917,8 +11047,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9950,8 +11086,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9983,8 +11125,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10016,8 +11164,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10049,8 +11203,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10082,8 +11242,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10115,8 +11281,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10148,8 +11320,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10181,8 +11359,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10214,8 +11398,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10247,8 +11437,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10280,8 +11476,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10313,8 +11515,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10346,8 +11554,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10379,8 +11593,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10412,8 +11632,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10445,8 +11671,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10478,8 +11710,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10511,8 +11749,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10544,8 +11788,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10577,8 +11827,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10610,8 +11866,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10643,8 +11905,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10676,8 +11944,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10709,8 +11983,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10742,8 +12022,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10775,8 +12061,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10808,8 +12100,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10841,8 +12139,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10874,8 +12178,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10907,8 +12217,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10940,8 +12256,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10973,8 +12295,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11006,8 +12334,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11039,8 +12373,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11072,8 +12412,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11105,8 +12451,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11138,8 +12490,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11171,8 +12529,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11204,8 +12568,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11237,8 +12607,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11270,8 +12646,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11303,8 +12685,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11336,8 +12724,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11369,8 +12763,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11402,8 +12802,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11435,8 +12841,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11468,8 +12880,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11501,8 +12919,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11534,8 +12958,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11567,8 +12997,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11600,8 +13036,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11633,8 +13075,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11666,8 +13114,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11699,8 +13153,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11732,8 +13192,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11765,8 +13231,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11798,8 +13270,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11831,8 +13309,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11864,8 +13348,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11897,8 +13387,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11930,8 +13426,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11963,8 +13465,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11996,8 +13504,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12029,8 +13543,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12062,8 +13582,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12095,8 +13621,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12128,8 +13660,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12161,8 +13699,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12194,8 +13738,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12227,8 +13777,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12260,8 +13816,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12293,8 +13855,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12326,8 +13894,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12359,8 +13933,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12392,8 +13972,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12425,8 +14011,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12458,8 +14050,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12491,8 +14089,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12524,8 +14128,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12557,8 +14167,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12590,8 +14206,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12623,8 +14245,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12656,8 +14284,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12689,8 +14323,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12722,8 +14362,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12755,8 +14401,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12788,8 +14440,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12821,8 +14479,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12854,8 +14518,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12887,8 +14557,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12920,8 +14596,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12953,8 +14635,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12986,8 +14674,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13019,8 +14713,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13052,8 +14752,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13085,8 +14791,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13118,8 +14830,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13151,8 +14869,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13184,8 +14908,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13217,8 +14947,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13250,8 +14986,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13283,8 +15025,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13316,8 +15064,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13349,8 +15103,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13382,8 +15142,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13415,8 +15181,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13448,8 +15220,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13481,8 +15259,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13514,8 +15298,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13547,8 +15337,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13580,8 +15376,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13613,8 +15415,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13646,8 +15454,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13679,8 +15493,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13712,8 +15532,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13745,8 +15571,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13778,8 +15610,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13811,8 +15649,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13844,8 +15688,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13877,8 +15727,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13910,8 +15766,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13943,8 +15805,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13976,8 +15844,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14009,8 +15883,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14042,8 +15922,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14075,8 +15961,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14108,8 +16000,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14141,8 +16039,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14174,8 +16078,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14207,8 +16117,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14240,8 +16156,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14273,8 +16195,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14306,8 +16234,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14339,8 +16273,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14372,8 +16312,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14405,8 +16351,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14438,8 +16390,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14471,8 +16429,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14504,8 +16468,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14537,8 +16507,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14570,8 +16546,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14603,8 +16585,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14636,8 +16624,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14669,8 +16663,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14702,8 +16702,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14735,8 +16741,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14768,8 +16780,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14801,8 +16819,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14834,8 +16858,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14867,8 +16897,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14900,8 +16936,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14933,8 +16975,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14966,8 +17014,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14999,8 +17053,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15029,15 +17089,23 @@
         <v>3057134.446506991</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L426" t="n">
-        <v>1</v>
-      </c>
-      <c r="M426" t="inlineStr"/>
+        <v>1.072380952380952</v>
+      </c>
+      <c r="M426" t="n">
+        <v>1.011976047904191</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
@@ -15062,7 +17130,7 @@
         <v>2757017.319506991</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15095,7 +17163,7 @@
         <v>2757027.319506991</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15128,7 +17196,7 @@
         <v>2638024.375095881</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15161,7 +17229,7 @@
         <v>2636868.404895881</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -18956,7 +21024,7 @@
         <v>8511856.459754582</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18989,7 +21057,7 @@
         <v>8511856.459754582</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19022,7 +21090,7 @@
         <v>8511856.459754582</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19055,7 +21123,7 @@
         <v>8511866.459754582</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19088,7 +21156,7 @@
         <v>8511866.459754582</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19121,7 +21189,7 @@
         <v>8511866.459754582</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19154,7 +21222,7 @@
         <v>8511866.459754582</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19187,7 +21255,7 @@
         <v>8506138.160954582</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19253,7 +21321,7 @@
         <v>8506138.160954582</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19286,7 +21354,7 @@
         <v>9753325.840454582</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19319,7 +21387,7 @@
         <v>9753325.840454582</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19352,7 +21420,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19385,7 +21453,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19418,7 +21486,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19451,7 +21519,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19484,7 +21552,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19517,7 +21585,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19550,7 +21618,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19583,7 +21651,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19616,7 +21684,7 @@
         <v>9635381.179954583</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
